--- a/AssetsHonsPrelimTA2024/data/Prelim_Hons_Thesis_Titles_and_Abstracts_2024_FinalX.xlsx
+++ b/AssetsHonsPrelimTA2024/data/Prelim_Hons_Thesis_Titles_and_Abstracts_2024_FinalX.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christopherbean/Documents/GitHub/drcgb.github.io/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christopherbean/Documents/GitHub/drcgb.github.io/AssetsHonsPrelimTA2024/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC4580EE-97D9-C14C-8B1E-74CEF35A7054}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9F7B259-19BA-364E-9857-812B2919D049}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="26880" xr2:uid="{D65AE397-B8D4-2049-9FF4-B8C90A09C2A0}"/>
   </bookViews>
@@ -1168,7 +1168,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1348,8 +1348,14 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor theme="0" tint="-0.14999847407452621"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -1464,6 +1470,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1509,19 +1533,43 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1569,62 +1617,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="13">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1635,26 +1628,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6F5B1878-5A5A-1B4B-B9D6-A31C4CFBB1A0}" name="Table1" displayName="Table1" ref="A1:K120" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
-  <autoFilter ref="A1:K120" xr:uid="{6F5B1878-5A5A-1B4B-B9D6-A31C4CFBB1A0}"/>
-  <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{A33BA024-C9C8-8C46-9E6A-5E0A1C9C74A0}" name="Abstract ID" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{5B4EA2BF-BB35-1C48-A8E1-1C123117437A}" name="Main Method" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{026EF1DC-6A65-C440-95CA-FFE678C4F8AA}" name="Method Detail" dataDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{692CD786-2A63-EC4C-AB5B-6581791D254A}" name="Preliminary Title" dataDxfId="9"/>
-    <tableColumn id="5" xr3:uid="{06A0AE73-94C7-8F4E-8860-08D30BDD7D24}" name="Preliminary Abstract" dataDxfId="8"/>
-    <tableColumn id="6" xr3:uid="{EB4D3987-3C38-D343-962B-DF2830C47286}" name="Research Area 1" dataDxfId="7"/>
-    <tableColumn id="7" xr3:uid="{42EE4261-4BFD-5642-BF39-A2A5AD1F86A0}" name="Research Area 2" dataDxfId="6"/>
-    <tableColumn id="8" xr3:uid="{9BC4D932-C9B4-2F49-90D3-9A3DD66DE66F}" name="Research Area 3" dataDxfId="5"/>
-    <tableColumn id="9" xr3:uid="{35D00F2A-7696-BB43-8C7B-6CD54416238F}" name="Research Area 4" dataDxfId="4"/>
-    <tableColumn id="10" xr3:uid="{D1452C9C-0F18-E344-9ACF-96B3C2897257}" name="Research Area 5" dataDxfId="3"/>
-    <tableColumn id="11" xr3:uid="{AEAB9E9C-394B-E345-9EA3-1201C46CBD76}" name="Research Area 6" dataDxfId="2"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1977,3248 +1950,3441 @@
   <dimension ref="A1:K120"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B87" sqref="B87"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.83203125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="14" style="5" customWidth="1"/>
-    <col min="3" max="3" width="25" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="88.6640625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="93.6640625" style="5" customWidth="1"/>
-    <col min="6" max="8" width="23.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.83203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="14" style="3" customWidth="1"/>
+    <col min="3" max="3" width="25" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="88.6640625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="93.6640625" style="3" customWidth="1"/>
+    <col min="6" max="8" width="23.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="32.83203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="18.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="5" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="187" x14ac:dyDescent="0.2">
-      <c r="A2" s="3">
+      <c r="A2" s="6">
         <v>2</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="5" t="s">
+      <c r="B2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="K2" s="5"/>
+      <c r="K2" s="7"/>
     </row>
     <row r="3" spans="1:11" ht="306" x14ac:dyDescent="0.2">
-      <c r="A3" s="3">
+      <c r="A3" s="8">
         <v>4</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="5" t="s">
+      <c r="B3" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
+      <c r="I3" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
     </row>
     <row r="4" spans="1:11" ht="187" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
+      <c r="A4" s="10">
         <v>5</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="5" t="s">
+      <c r="B4" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11" t="s">
         <v>294</v>
       </c>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
     </row>
     <row r="5" spans="1:11" ht="238" x14ac:dyDescent="0.2">
-      <c r="A5" s="3">
+      <c r="A5" s="8">
         <v>6</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="5" t="s">
+      <c r="B5" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="5" t="s">
+      <c r="F5" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="H5" s="9"/>
+      <c r="I5" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
     </row>
     <row r="6" spans="1:11" ht="272" x14ac:dyDescent="0.2">
-      <c r="A6" s="3">
+      <c r="A6" s="10">
         <v>7</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="5" t="s">
+      <c r="B6" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="J6" s="5" t="s">
+      <c r="H6" s="11"/>
+      <c r="I6" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="J6" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="K6" s="5" t="s">
+      <c r="K6" s="11" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="238" x14ac:dyDescent="0.2">
-      <c r="A7" s="3">
-        <v>8</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="5" t="s">
+      <c r="A7" s="8">
+        <v>8</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="J7" s="5" t="s">
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J7" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="K7" s="5"/>
+      <c r="K7" s="9"/>
     </row>
     <row r="8" spans="1:11" ht="272" x14ac:dyDescent="0.2">
-      <c r="A8" s="3">
+      <c r="A8" s="10">
         <v>9</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="5" t="s">
+      <c r="B8" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="I8" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="J8" s="5" t="s">
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="J8" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="K8" s="5"/>
+      <c r="K8" s="11"/>
     </row>
     <row r="9" spans="1:11" ht="289" x14ac:dyDescent="0.2">
-      <c r="A9" s="3">
+      <c r="A9" s="8">
         <v>10</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="C9" s="9"/>
+      <c r="D9" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="I9" s="5" t="s">
+      <c r="F9" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
     </row>
     <row r="10" spans="1:11" ht="204" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
+      <c r="A10" s="10">
         <v>11</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="5" t="s">
+      <c r="B10" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="G10" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="I10" s="5" t="s">
+      <c r="H10" s="11"/>
+      <c r="I10" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="J10" s="5" t="s">
+      <c r="J10" s="11" t="s">
         <v>294</v>
       </c>
-      <c r="K10" s="5"/>
+      <c r="K10" s="11"/>
     </row>
     <row r="11" spans="1:11" ht="289" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
+      <c r="A11" s="8">
         <v>13</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="5" t="s">
+      <c r="B11" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="G11" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="I11" s="5" t="s">
+      <c r="H11" s="9"/>
+      <c r="I11" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
     </row>
     <row r="12" spans="1:11" ht="272" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
+      <c r="A12" s="10">
         <v>14</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="5" t="s">
+      <c r="B12" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F12" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="I12" s="5" t="s">
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="J12" s="5" t="s">
+      <c r="J12" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="K12" s="5" t="s">
+      <c r="K12" s="11" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="255" x14ac:dyDescent="0.2">
-      <c r="A13" s="3">
+      <c r="A13" s="8">
         <v>15</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="5" t="s">
+      <c r="B13" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="G13" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="H13" s="5" t="s">
+      <c r="H13" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="I13" s="5" t="s">
+      <c r="I13" s="9" t="s">
         <v>294</v>
       </c>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
     </row>
     <row r="14" spans="1:11" ht="372" x14ac:dyDescent="0.2">
-      <c r="A14" s="3">
+      <c r="A14" s="10">
         <v>16</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="5" t="s">
+      <c r="B14" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="F14" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="G14" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5" t="s">
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="K14" s="5"/>
+      <c r="K14" s="11"/>
     </row>
     <row r="15" spans="1:11" ht="221" x14ac:dyDescent="0.2">
-      <c r="A15" s="3">
+      <c r="A15" s="8">
         <v>18</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="F15" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="G15" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H15" s="5" t="s">
+      <c r="G15" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H15" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="I15" s="5" t="s">
+      <c r="I15" s="9" t="s">
         <v>298</v>
       </c>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
     </row>
     <row r="16" spans="1:11" ht="323" x14ac:dyDescent="0.2">
-      <c r="A16" s="3">
+      <c r="A16" s="10">
         <v>19</v>
       </c>
-      <c r="B16" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="5" t="s">
+      <c r="B16" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="F16" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="G16" s="5" t="s">
+      <c r="G16" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="H16" s="5" t="s">
+      <c r="H16" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="I16" s="5" t="s">
+      <c r="I16" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="J16" s="5" t="s">
+      <c r="J16" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="K16" s="5"/>
+      <c r="K16" s="11"/>
     </row>
     <row r="17" spans="1:11" ht="306" x14ac:dyDescent="0.2">
-      <c r="A17" s="3">
+      <c r="A17" s="8">
         <v>20</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="C17" s="9"/>
+      <c r="D17" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="F17" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="G17" s="5" t="s">
+      <c r="G17" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
     </row>
     <row r="18" spans="1:11" ht="255" x14ac:dyDescent="0.2">
-      <c r="A18" s="3">
-        <v>21</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" s="5" t="s">
+      <c r="A18" s="10">
+        <v>21</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E18" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="F18" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="G18" s="5" t="s">
+      <c r="G18" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
     </row>
     <row r="19" spans="1:11" ht="238" x14ac:dyDescent="0.2">
-      <c r="A19" s="3">
+      <c r="A19" s="8">
         <v>22</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E19" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="F19" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="I19" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="J19" s="5" t="s">
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J19" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="K19" s="5" t="s">
+      <c r="K19" s="9" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="323" x14ac:dyDescent="0.2">
-      <c r="A20" s="3">
+      <c r="A20" s="10">
         <v>23</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="C20" s="11"/>
+      <c r="D20" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E20" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="F20" s="5" t="s">
+      <c r="F20" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="G20" s="5" t="s">
+      <c r="G20" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="H20" s="5" t="s">
+      <c r="H20" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="I20" s="5" t="s">
+      <c r="I20" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
     </row>
     <row r="21" spans="1:11" ht="204" x14ac:dyDescent="0.2">
-      <c r="A21" s="3">
+      <c r="A21" s="8">
         <v>24</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E21" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="F21" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G21" s="5" t="s">
+      <c r="F21" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G21" s="9" t="s">
         <v>298</v>
       </c>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5" t="s">
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="K21" s="5"/>
+      <c r="K21" s="9"/>
     </row>
     <row r="22" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A22" s="3">
+      <c r="A22" s="10">
         <v>25</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="C22" s="11"/>
+      <c r="D22" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="E22" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="F22" s="5" t="s">
+      <c r="F22" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="G22" s="5" t="s">
+      <c r="G22" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="I22" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="J22" s="5" t="s">
+      <c r="H22" s="11"/>
+      <c r="I22" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="J22" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="K22" s="5"/>
+      <c r="K22" s="11"/>
     </row>
     <row r="23" spans="1:11" ht="289" x14ac:dyDescent="0.2">
-      <c r="A23" s="3">
+      <c r="A23" s="8">
         <v>26</v>
       </c>
-      <c r="B23" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D23" s="5" t="s">
+      <c r="B23" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="E23" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="F23" s="5" t="s">
+      <c r="F23" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="G23" s="5" t="s">
+      <c r="G23" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="H23" s="5" t="s">
+      <c r="H23" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="I23" s="5" t="s">
+      <c r="I23" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="J23" s="5" t="s">
+      <c r="J23" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="K23" s="5" t="s">
+      <c r="K23" s="9" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="238" x14ac:dyDescent="0.2">
-      <c r="A24" s="3">
+      <c r="A24" s="10">
         <v>27</v>
       </c>
-      <c r="B24" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D24" s="5" t="s">
+      <c r="B24" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="E24" s="5" t="s">
+      <c r="E24" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="F24" s="5" t="s">
+      <c r="F24" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="I24" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="J24" s="5" t="s">
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="J24" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="K24" s="5"/>
+      <c r="K24" s="11"/>
     </row>
     <row r="25" spans="1:11" ht="289" x14ac:dyDescent="0.2">
-      <c r="A25" s="3">
+      <c r="A25" s="8">
         <v>28</v>
       </c>
-      <c r="B25" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D25" s="5" t="s">
+      <c r="B25" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="E25" s="5" t="s">
+      <c r="E25" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="F25" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="I25" s="5" t="s">
+      <c r="F25" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
     </row>
     <row r="26" spans="1:11" ht="323" x14ac:dyDescent="0.2">
-      <c r="A26" s="3">
+      <c r="A26" s="10">
         <v>29</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D26" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="E26" s="5" t="s">
+      <c r="E26" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="F26" s="5" t="s">
+      <c r="F26" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="G26" s="5" t="s">
+      <c r="G26" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="H26" s="5" t="s">
+      <c r="H26" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="I26" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="J26" s="5"/>
-      <c r="K26" s="5"/>
+      <c r="I26" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
     </row>
     <row r="27" spans="1:11" ht="272" x14ac:dyDescent="0.2">
-      <c r="A27" s="3">
+      <c r="A27" s="8">
         <v>30</v>
       </c>
-      <c r="B27" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D27" s="5" t="s">
+      <c r="B27" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="E27" s="5" t="s">
+      <c r="E27" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="F27" s="5" t="s">
+      <c r="F27" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
-      <c r="K27" s="5"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
     </row>
     <row r="28" spans="1:11" ht="255" x14ac:dyDescent="0.2">
-      <c r="A28" s="3">
+      <c r="A28" s="10">
         <v>31</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="C28" s="11"/>
+      <c r="D28" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="E28" s="5" t="s">
+      <c r="E28" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="F28" s="5" t="s">
+      <c r="F28" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="G28" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="I28" s="5" t="s">
+      <c r="G28" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="J28" s="5" t="s">
+      <c r="J28" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="K28" s="5"/>
+      <c r="K28" s="11"/>
     </row>
     <row r="29" spans="1:11" ht="272" x14ac:dyDescent="0.2">
-      <c r="A29" s="3">
+      <c r="A29" s="8">
         <v>32</v>
       </c>
-      <c r="B29" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D29" s="5" t="s">
+      <c r="B29" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="E29" s="5" t="s">
+      <c r="E29" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="F29" s="5" t="s">
+      <c r="F29" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G29" s="5" t="s">
+      <c r="G29" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="H29" s="5" t="s">
+      <c r="H29" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="I29" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="J29" s="5"/>
-      <c r="K29" s="5"/>
+      <c r="I29" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
     </row>
     <row r="30" spans="1:11" ht="289" x14ac:dyDescent="0.2">
-      <c r="A30" s="3">
+      <c r="A30" s="10">
         <v>33</v>
       </c>
-      <c r="B30" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D30" s="5" t="s">
+      <c r="B30" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="E30" s="5" t="s">
+      <c r="E30" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="F30" s="5" t="s">
+      <c r="F30" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G30" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H30" s="5" t="s">
+      <c r="G30" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H30" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="I30" s="5"/>
-      <c r="J30" s="5"/>
-      <c r="K30" s="5"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11"/>
     </row>
     <row r="31" spans="1:11" ht="289" x14ac:dyDescent="0.2">
-      <c r="A31" s="3">
+      <c r="A31" s="8">
         <v>34</v>
       </c>
-      <c r="B31" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D31" s="5" t="s">
+      <c r="B31" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="E31" s="5" t="s">
+      <c r="E31" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="F31" s="5" t="s">
+      <c r="F31" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G31" s="5" t="s">
+      <c r="G31" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="H31" s="5" t="s">
+      <c r="H31" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="I31" s="5" t="s">
+      <c r="I31" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="J31" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="K31" s="5" t="s">
+      <c r="J31" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="K31" s="9" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="255" x14ac:dyDescent="0.2">
-      <c r="A32" s="3">
+      <c r="A32" s="10">
         <v>35</v>
       </c>
-      <c r="B32" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D32" s="5" t="s">
+      <c r="B32" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="E32" s="5" t="s">
+      <c r="E32" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="F32" s="5" t="s">
+      <c r="F32" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="G32" s="5" t="s">
+      <c r="G32" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="H32" s="5" t="s">
+      <c r="H32" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="I32" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="J32" s="5" t="s">
+      <c r="I32" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="J32" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="K32" s="5"/>
+      <c r="K32" s="11"/>
     </row>
     <row r="33" spans="1:11" ht="255" x14ac:dyDescent="0.2">
-      <c r="A33" s="3">
+      <c r="A33" s="8">
         <v>36</v>
       </c>
-      <c r="B33" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D33" s="5" t="s">
+      <c r="B33" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="E33" s="5" t="s">
+      <c r="E33" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="F33" s="5" t="s">
+      <c r="F33" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="I33" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="J33" s="5" t="s">
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J33" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="K33" s="5" t="s">
+      <c r="K33" s="9" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="272" x14ac:dyDescent="0.2">
-      <c r="A34" s="3">
+      <c r="A34" s="10">
         <v>37</v>
       </c>
-      <c r="B34" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D34" s="5" t="s">
+      <c r="B34" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="E34" s="5" t="s">
+      <c r="E34" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="F34" s="5" t="s">
+      <c r="F34" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="G34" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H34" s="5" t="s">
+      <c r="G34" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H34" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="I34" s="5" t="s">
+      <c r="I34" s="11" t="s">
         <v>298</v>
       </c>
-      <c r="J34" s="5"/>
-      <c r="K34" s="5"/>
+      <c r="J34" s="11"/>
+      <c r="K34" s="11"/>
     </row>
     <row r="35" spans="1:11" ht="170" x14ac:dyDescent="0.2">
-      <c r="A35" s="3">
+      <c r="A35" s="8">
         <v>38</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B35" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="C35" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="D35" s="5" t="s">
+      <c r="D35" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="E35" s="5" t="s">
+      <c r="E35" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="F35" s="5" t="s">
+      <c r="F35" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="I35" s="5" t="s">
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="J35" s="5"/>
-      <c r="K35" s="5"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
     </row>
     <row r="36" spans="1:11" ht="204" x14ac:dyDescent="0.2">
-      <c r="A36" s="3">
+      <c r="A36" s="10">
         <v>39</v>
       </c>
-      <c r="B36" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D36" s="5" t="s">
+      <c r="B36" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="E36" s="5" t="s">
+      <c r="E36" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="F36" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="I36" s="5"/>
-      <c r="J36" s="5"/>
-      <c r="K36" s="5"/>
+      <c r="F36" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="11"/>
+      <c r="J36" s="11"/>
+      <c r="K36" s="11"/>
     </row>
     <row r="37" spans="1:11" ht="238" x14ac:dyDescent="0.2">
-      <c r="A37" s="3">
+      <c r="A37" s="8">
         <v>40</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="B37" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D37" s="5" t="s">
+      <c r="C37" s="9"/>
+      <c r="D37" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="E37" s="5" t="s">
+      <c r="E37" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="F37" s="5" t="s">
+      <c r="F37" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="G37" s="5" t="s">
+      <c r="G37" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="H37" s="5" t="s">
+      <c r="H37" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="I37" s="5" t="s">
+      <c r="I37" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="J37" s="5"/>
-      <c r="K37" s="5"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
     </row>
     <row r="38" spans="1:11" ht="255" x14ac:dyDescent="0.2">
-      <c r="A38" s="3">
+      <c r="A38" s="10">
         <v>41</v>
       </c>
-      <c r="B38" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D38" s="5" t="s">
+      <c r="B38" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="E38" s="5" t="s">
+      <c r="E38" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="F38" s="5" t="s">
+      <c r="F38" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G38" s="5" t="s">
+      <c r="G38" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="I38" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="J38" s="5" t="s">
+      <c r="H38" s="11"/>
+      <c r="I38" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="J38" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="K38" s="5" t="s">
+      <c r="K38" s="11" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="306" x14ac:dyDescent="0.2">
-      <c r="A39" s="3">
+      <c r="A39" s="8">
         <v>42</v>
       </c>
-      <c r="B39" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D39" s="5" t="s">
+      <c r="B39" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="E39" s="5" t="s">
+      <c r="E39" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="F39" s="5" t="s">
+      <c r="F39" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="G39" s="5" t="s">
+      <c r="G39" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="H39" s="5" t="s">
+      <c r="H39" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="I39" s="5" t="s">
+      <c r="I39" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="J39" s="5"/>
-      <c r="K39" s="5"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
     </row>
     <row r="40" spans="1:11" ht="255" x14ac:dyDescent="0.2">
-      <c r="A40" s="3">
+      <c r="A40" s="10">
         <v>43</v>
       </c>
-      <c r="B40" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D40" s="5" t="s">
+      <c r="B40" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="E40" s="5" t="s">
+      <c r="E40" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="F40" s="5" t="s">
+      <c r="F40" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="I40" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="J40" s="5"/>
-      <c r="K40" s="5"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="11"/>
+      <c r="I40" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="J40" s="11"/>
+      <c r="K40" s="11"/>
     </row>
     <row r="41" spans="1:11" ht="255" x14ac:dyDescent="0.2">
-      <c r="A41" s="3">
+      <c r="A41" s="8">
         <v>44</v>
       </c>
-      <c r="B41" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D41" s="5" t="s">
+      <c r="B41" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="E41" s="5" t="s">
+      <c r="E41" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="F41" s="5" t="s">
+      <c r="F41" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="G41" s="5" t="s">
+      <c r="G41" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="H41" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="I41" s="5"/>
-      <c r="J41" s="5"/>
-      <c r="K41" s="5"/>
+      <c r="H41" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
     </row>
     <row r="42" spans="1:11" ht="272" x14ac:dyDescent="0.2">
-      <c r="A42" s="3">
+      <c r="A42" s="10">
         <v>45</v>
       </c>
-      <c r="B42" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D42" s="5" t="s">
+      <c r="B42" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="E42" s="5" t="s">
+      <c r="E42" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="F42" s="5" t="s">
+      <c r="F42" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G42" s="5" t="s">
+      <c r="G42" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="H42" s="5" t="s">
+      <c r="H42" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="I42" s="5" t="s">
+      <c r="I42" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="J42" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="K42" s="5" t="s">
+      <c r="J42" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="K42" s="11" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="43" spans="1:11" ht="340" x14ac:dyDescent="0.2">
-      <c r="A43" s="3">
+      <c r="A43" s="8">
         <v>46</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="B43" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D43" s="5" t="s">
+      <c r="C43" s="9"/>
+      <c r="D43" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="E43" s="5" t="s">
+      <c r="E43" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="F43" s="5" t="s">
+      <c r="F43" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="G43" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H43" s="5" t="s">
+      <c r="G43" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H43" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="I43" s="5" t="s">
+      <c r="I43" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="J43" s="5" t="s">
+      <c r="J43" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="K43" s="5"/>
+      <c r="K43" s="9"/>
     </row>
     <row r="44" spans="1:11" ht="323" x14ac:dyDescent="0.2">
-      <c r="A44" s="3">
+      <c r="A44" s="10">
         <v>47</v>
       </c>
-      <c r="B44" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D44" s="5" t="s">
+      <c r="B44" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="E44" s="5" t="s">
+      <c r="E44" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="F44" s="5" t="s">
+      <c r="F44" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="G44" s="5" t="s">
+      <c r="G44" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="I44" s="5"/>
-      <c r="J44" s="5"/>
-      <c r="K44" s="5"/>
+      <c r="H44" s="11"/>
+      <c r="I44" s="11"/>
+      <c r="J44" s="11"/>
+      <c r="K44" s="11"/>
     </row>
     <row r="45" spans="1:11" ht="289" x14ac:dyDescent="0.2">
-      <c r="A45" s="3">
+      <c r="A45" s="8">
         <v>49</v>
       </c>
-      <c r="B45" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D45" s="5" t="s">
+      <c r="B45" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="E45" s="5" t="s">
+      <c r="E45" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="F45" s="5" t="s">
+      <c r="F45" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="G45" s="5" t="s">
+      <c r="G45" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="H45" s="5" t="s">
+      <c r="H45" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="I45" s="5" t="s">
+      <c r="I45" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="J45" s="5"/>
-      <c r="K45" s="5"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
     </row>
     <row r="46" spans="1:11" ht="306" x14ac:dyDescent="0.2">
-      <c r="A46" s="3">
+      <c r="A46" s="10">
         <v>50</v>
       </c>
-      <c r="B46" s="5" t="s">
+      <c r="B46" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="C46" s="5" t="s">
+      <c r="C46" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="D46" s="5" t="s">
+      <c r="D46" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="E46" s="5" t="s">
+      <c r="E46" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="F46" s="5" t="s">
+      <c r="F46" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="G46" s="5" t="s">
+      <c r="G46" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="I46" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="J46" s="5"/>
-      <c r="K46" s="5"/>
+      <c r="H46" s="11"/>
+      <c r="I46" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="J46" s="11"/>
+      <c r="K46" s="11"/>
     </row>
     <row r="47" spans="1:11" ht="255" x14ac:dyDescent="0.2">
-      <c r="A47" s="3">
+      <c r="A47" s="8">
         <v>51</v>
       </c>
-      <c r="B47" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D47" s="5" t="s">
+      <c r="B47" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="E47" s="5" t="s">
+      <c r="E47" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="F47" s="5" t="s">
+      <c r="F47" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G47" s="5" t="s">
+      <c r="G47" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H47" s="5" t="s">
+      <c r="H47" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="I47" s="5" t="s">
+      <c r="I47" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="J47" s="5"/>
-      <c r="K47" s="5"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="9"/>
     </row>
     <row r="48" spans="1:11" ht="272" x14ac:dyDescent="0.2">
-      <c r="A48" s="3">
+      <c r="A48" s="10">
         <v>52</v>
       </c>
-      <c r="B48" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D48" s="5" t="s">
+      <c r="B48" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C48" s="11"/>
+      <c r="D48" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="E48" s="5" t="s">
+      <c r="E48" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="F48" s="5" t="s">
+      <c r="F48" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="G48" s="5" t="s">
+      <c r="G48" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="I48" s="5"/>
-      <c r="J48" s="5"/>
-      <c r="K48" s="5"/>
+      <c r="H48" s="11"/>
+      <c r="I48" s="11"/>
+      <c r="J48" s="11"/>
+      <c r="K48" s="11"/>
     </row>
     <row r="49" spans="1:11" ht="170" x14ac:dyDescent="0.2">
-      <c r="A49" s="3">
+      <c r="A49" s="8">
         <v>53</v>
       </c>
-      <c r="B49" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D49" s="5" t="s">
+      <c r="B49" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49" s="9"/>
+      <c r="D49" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="E49" s="5" t="s">
+      <c r="E49" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="F49" s="5" t="s">
+      <c r="F49" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="G49" s="5" t="s">
+      <c r="G49" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H49" s="5" t="s">
+      <c r="H49" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="I49" s="5" t="s">
+      <c r="I49" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="J49" s="5" t="s">
+      <c r="J49" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="K49" s="5"/>
+      <c r="K49" s="9"/>
     </row>
     <row r="50" spans="1:11" ht="289" x14ac:dyDescent="0.2">
-      <c r="A50" s="3">
+      <c r="A50" s="10">
         <v>54</v>
       </c>
-      <c r="B50" s="5" t="s">
+      <c r="B50" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="C50" s="5" t="s">
+      <c r="C50" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="D50" s="5" t="s">
+      <c r="D50" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="E50" s="5" t="s">
+      <c r="E50" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="F50" s="5" t="s">
+      <c r="F50" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="I50" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="J50" s="5" t="s">
+      <c r="G50" s="11"/>
+      <c r="H50" s="11"/>
+      <c r="I50" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="J50" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="K50" s="5"/>
+      <c r="K50" s="11"/>
     </row>
     <row r="51" spans="1:11" ht="272" x14ac:dyDescent="0.2">
-      <c r="A51" s="3">
+      <c r="A51" s="8">
         <v>55</v>
       </c>
-      <c r="B51" s="5" t="s">
+      <c r="B51" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="C51" s="5" t="s">
+      <c r="C51" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="D51" s="5" t="s">
+      <c r="D51" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="E51" s="5" t="s">
+      <c r="E51" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="F51" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G51" s="5" t="s">
+      <c r="F51" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G51" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="I51" s="5" t="s">
+      <c r="H51" s="9"/>
+      <c r="I51" s="9" t="s">
         <v>298</v>
       </c>
-      <c r="J51" s="5"/>
-      <c r="K51" s="5"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="9"/>
     </row>
     <row r="52" spans="1:11" ht="306" x14ac:dyDescent="0.2">
-      <c r="A52" s="3">
+      <c r="A52" s="10">
         <v>56</v>
       </c>
-      <c r="B52" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D52" s="5" t="s">
+      <c r="B52" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C52" s="11"/>
+      <c r="D52" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="E52" s="5" t="s">
+      <c r="E52" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="F52" s="5" t="s">
+      <c r="F52" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G52" s="5" t="s">
+      <c r="G52" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="H52" s="5" t="s">
+      <c r="H52" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="I52" s="5" t="s">
+      <c r="I52" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="J52" s="5" t="s">
+      <c r="J52" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="K52" s="5"/>
+      <c r="K52" s="11"/>
     </row>
     <row r="53" spans="1:11" ht="323" x14ac:dyDescent="0.2">
-      <c r="A53" s="3">
+      <c r="A53" s="8">
         <v>57</v>
       </c>
-      <c r="B53" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D53" s="5" t="s">
+      <c r="B53" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C53" s="9"/>
+      <c r="D53" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="E53" s="5" t="s">
+      <c r="E53" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="F53" s="5" t="s">
+      <c r="F53" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="G53" s="5" t="s">
+      <c r="G53" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="H53" s="5" t="s">
+      <c r="H53" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="I53" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="J53" s="5" t="s">
+      <c r="I53" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J53" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="K53" s="5"/>
+      <c r="K53" s="9"/>
     </row>
     <row r="54" spans="1:11" ht="323" x14ac:dyDescent="0.2">
-      <c r="A54" s="3">
+      <c r="A54" s="10">
         <v>58</v>
       </c>
-      <c r="B54" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D54" s="5" t="s">
+      <c r="B54" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C54" s="11"/>
+      <c r="D54" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="E54" s="5" t="s">
+      <c r="E54" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="F54" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="I54" s="5" t="s">
+      <c r="F54" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G54" s="11"/>
+      <c r="H54" s="11"/>
+      <c r="I54" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="J54" s="5" t="s">
+      <c r="J54" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="K54" s="5"/>
+      <c r="K54" s="11"/>
     </row>
     <row r="55" spans="1:11" ht="221" x14ac:dyDescent="0.2">
-      <c r="A55" s="3">
+      <c r="A55" s="8">
         <v>59</v>
       </c>
-      <c r="B55" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D55" s="5" t="s">
+      <c r="B55" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C55" s="9"/>
+      <c r="D55" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="E55" s="5" t="s">
+      <c r="E55" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="F55" s="5" t="s">
+      <c r="F55" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G55" s="5" t="s">
+      <c r="G55" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="H55" s="5" t="s">
+      <c r="H55" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="I55" s="5"/>
-      <c r="J55" s="5"/>
-      <c r="K55" s="5"/>
+      <c r="I55" s="9"/>
+      <c r="J55" s="9"/>
+      <c r="K55" s="9"/>
     </row>
     <row r="56" spans="1:11" ht="272" x14ac:dyDescent="0.2">
-      <c r="A56" s="3">
+      <c r="A56" s="10">
         <v>60</v>
       </c>
-      <c r="B56" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D56" s="5" t="s">
+      <c r="B56" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C56" s="11"/>
+      <c r="D56" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="E56" s="5" t="s">
+      <c r="E56" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="F56" s="5" t="s">
+      <c r="F56" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G56" s="5" t="s">
+      <c r="G56" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="H56" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="I56" s="5" t="s">
+      <c r="H56" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="I56" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="J56" s="5" t="s">
+      <c r="J56" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="K56" s="5"/>
+      <c r="K56" s="11"/>
     </row>
     <row r="57" spans="1:11" ht="255" x14ac:dyDescent="0.2">
-      <c r="A57" s="3">
+      <c r="A57" s="8">
         <v>61</v>
       </c>
-      <c r="B57" s="5" t="s">
+      <c r="B57" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="C57" s="5" t="s">
+      <c r="C57" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="D57" s="5" t="s">
+      <c r="D57" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="E57" s="5" t="s">
+      <c r="E57" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="F57" s="5" t="s">
+      <c r="F57" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="G57" s="5" t="s">
+      <c r="G57" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="H57" s="5" t="s">
+      <c r="H57" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="I57" s="5" t="s">
+      <c r="I57" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="J57" s="5" t="s">
+      <c r="J57" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="K57" s="5"/>
+      <c r="K57" s="9"/>
     </row>
     <row r="58" spans="1:11" ht="372" x14ac:dyDescent="0.2">
-      <c r="A58" s="3">
+      <c r="A58" s="10">
         <v>62</v>
       </c>
-      <c r="B58" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D58" s="5" t="s">
+      <c r="B58" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C58" s="11"/>
+      <c r="D58" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="E58" s="5" t="s">
+      <c r="E58" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="F58" s="5" t="s">
+      <c r="F58" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="I58" s="5" t="s">
+      <c r="G58" s="11"/>
+      <c r="H58" s="11"/>
+      <c r="I58" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="J58" s="5"/>
-      <c r="K58" s="5"/>
+      <c r="J58" s="11"/>
+      <c r="K58" s="11"/>
     </row>
     <row r="59" spans="1:11" ht="306" x14ac:dyDescent="0.2">
-      <c r="A59" s="3">
+      <c r="A59" s="8">
         <v>63</v>
       </c>
-      <c r="B59" s="5" t="s">
+      <c r="B59" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C59" s="5" t="s">
+      <c r="C59" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="D59" s="5" t="s">
+      <c r="D59" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="E59" s="5" t="s">
+      <c r="E59" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="F59" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="I59" s="5" t="s">
+      <c r="F59" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G59" s="9"/>
+      <c r="H59" s="9"/>
+      <c r="I59" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="J59" s="5"/>
-      <c r="K59" s="5"/>
+      <c r="J59" s="9"/>
+      <c r="K59" s="9"/>
     </row>
     <row r="60" spans="1:11" ht="306" x14ac:dyDescent="0.2">
-      <c r="A60" s="3">
+      <c r="A60" s="10">
         <v>64</v>
       </c>
-      <c r="B60" s="5" t="s">
+      <c r="B60" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="C60" s="5" t="s">
+      <c r="C60" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="D60" s="5" t="s">
+      <c r="D60" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="E60" s="5" t="s">
+      <c r="E60" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="F60" s="5" t="s">
+      <c r="F60" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G60" s="5" t="s">
+      <c r="G60" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="I60" s="5" t="s">
+      <c r="H60" s="11"/>
+      <c r="I60" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="J60" s="5" t="s">
+      <c r="J60" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="K60" s="5"/>
+      <c r="K60" s="11"/>
     </row>
     <row r="61" spans="1:11" ht="323" x14ac:dyDescent="0.2">
-      <c r="A61" s="3">
+      <c r="A61" s="8">
         <v>65</v>
       </c>
-      <c r="B61" s="5" t="s">
+      <c r="B61" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="C61" s="5" t="s">
+      <c r="C61" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="D61" s="5" t="s">
+      <c r="D61" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="E61" s="5" t="s">
+      <c r="E61" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="F61" s="5" t="s">
+      <c r="F61" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="G61" s="5" t="s">
+      <c r="G61" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="I61" s="5" t="s">
+      <c r="H61" s="9"/>
+      <c r="I61" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="J61" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="K61" s="5" t="s">
+      <c r="J61" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="K61" s="9" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="62" spans="1:11" ht="272" x14ac:dyDescent="0.2">
-      <c r="A62" s="3">
+      <c r="A62" s="10">
         <v>67</v>
       </c>
-      <c r="B62" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D62" s="5" t="s">
+      <c r="B62" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C62" s="11"/>
+      <c r="D62" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="E62" s="5" t="s">
+      <c r="E62" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="F62" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G62" s="5" t="s">
+      <c r="F62" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G62" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="H62" s="5" t="s">
+      <c r="H62" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="I62" s="5" t="s">
+      <c r="I62" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="J62" s="5" t="s">
+      <c r="J62" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="K62" s="5"/>
+      <c r="K62" s="11"/>
     </row>
     <row r="63" spans="1:11" ht="238" x14ac:dyDescent="0.2">
-      <c r="A63" s="3">
+      <c r="A63" s="8">
         <v>68</v>
       </c>
-      <c r="B63" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D63" s="5" t="s">
+      <c r="B63" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C63" s="9"/>
+      <c r="D63" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="E63" s="5" t="s">
+      <c r="E63" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="F63" s="5" t="s">
+      <c r="F63" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="I63" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="J63" s="5" t="s">
+      <c r="G63" s="9"/>
+      <c r="H63" s="9"/>
+      <c r="I63" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J63" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="K63" s="5" t="s">
+      <c r="K63" s="9" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="64" spans="1:11" ht="272" x14ac:dyDescent="0.2">
-      <c r="A64" s="3">
+      <c r="A64" s="10">
         <v>69</v>
       </c>
-      <c r="B64" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D64" s="5" t="s">
+      <c r="B64" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C64" s="11"/>
+      <c r="D64" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="E64" s="5" t="s">
+      <c r="E64" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="F64" s="5" t="s">
+      <c r="F64" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="G64" s="5" t="s">
+      <c r="G64" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="H64" s="5" t="s">
+      <c r="H64" s="11" t="s">
         <v>294</v>
       </c>
-      <c r="I64" s="5" t="s">
+      <c r="I64" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="J64" s="5"/>
-      <c r="K64" s="5"/>
+      <c r="J64" s="11"/>
+      <c r="K64" s="11"/>
     </row>
     <row r="65" spans="1:11" ht="272" x14ac:dyDescent="0.2">
-      <c r="A65" s="3">
+      <c r="A65" s="8">
         <v>70</v>
       </c>
-      <c r="B65" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D65" s="5" t="s">
+      <c r="B65" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C65" s="9"/>
+      <c r="D65" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="E65" s="5" t="s">
+      <c r="E65" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="F65" s="5" t="s">
+      <c r="F65" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="G65" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="I65" s="5" t="s">
+      <c r="G65" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H65" s="9"/>
+      <c r="I65" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="J65" s="5"/>
-      <c r="K65" s="5"/>
+      <c r="J65" s="9"/>
+      <c r="K65" s="9"/>
     </row>
     <row r="66" spans="1:11" ht="272" x14ac:dyDescent="0.2">
-      <c r="A66" s="3">
+      <c r="A66" s="10">
         <v>71</v>
       </c>
-      <c r="B66" s="5" t="s">
+      <c r="B66" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="C66" s="5" t="s">
+      <c r="C66" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="D66" s="5" t="s">
+      <c r="D66" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="E66" s="5" t="s">
+      <c r="E66" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="F66" s="5" t="s">
+      <c r="F66" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="G66" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="I66" s="5" t="s">
+      <c r="G66" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H66" s="11"/>
+      <c r="I66" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="J66" s="5"/>
-      <c r="K66" s="5"/>
+      <c r="J66" s="11"/>
+      <c r="K66" s="11"/>
     </row>
     <row r="67" spans="1:11" ht="323" x14ac:dyDescent="0.2">
-      <c r="A67" s="3">
+      <c r="A67" s="8">
         <v>72</v>
       </c>
-      <c r="B67" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D67" s="5" t="s">
+      <c r="B67" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C67" s="9"/>
+      <c r="D67" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="E67" s="5" t="s">
+      <c r="E67" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="F67" s="5" t="s">
+      <c r="F67" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G67" s="5" t="s">
+      <c r="G67" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="I67" s="5" t="s">
+      <c r="H67" s="9"/>
+      <c r="I67" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="J67" s="5" t="s">
+      <c r="J67" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="K67" s="5"/>
+      <c r="K67" s="9"/>
     </row>
     <row r="68" spans="1:11" ht="289" x14ac:dyDescent="0.2">
-      <c r="A68" s="3">
+      <c r="A68" s="10">
         <v>73</v>
       </c>
-      <c r="B68" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D68" s="5" t="s">
+      <c r="B68" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C68" s="11"/>
+      <c r="D68" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="E68" s="5" t="s">
+      <c r="E68" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="F68" s="5" t="s">
+      <c r="F68" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G68" s="5" t="s">
+      <c r="G68" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="I68" s="5" t="s">
+      <c r="H68" s="11"/>
+      <c r="I68" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="J68" s="5"/>
-      <c r="K68" s="5"/>
+      <c r="J68" s="11"/>
+      <c r="K68" s="11"/>
     </row>
     <row r="69" spans="1:11" ht="323" x14ac:dyDescent="0.2">
-      <c r="A69" s="3">
+      <c r="A69" s="8">
         <v>74</v>
       </c>
-      <c r="B69" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D69" s="5" t="s">
+      <c r="B69" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C69" s="9"/>
+      <c r="D69" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="E69" s="5" t="s">
+      <c r="E69" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="F69" s="5" t="s">
+      <c r="F69" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="G69" s="5" t="s">
+      <c r="G69" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H69" s="5" t="s">
+      <c r="H69" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="I69" s="5" t="s">
+      <c r="I69" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="J69" s="5" t="s">
+      <c r="J69" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="K69" s="5"/>
+      <c r="K69" s="9"/>
     </row>
     <row r="70" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A70" s="3">
+      <c r="A70" s="10">
         <v>75</v>
       </c>
-      <c r="B70" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D70" s="5" t="s">
+      <c r="B70" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C70" s="11"/>
+      <c r="D70" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="E70" s="5" t="s">
+      <c r="E70" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="F70" s="5" t="s">
+      <c r="F70" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G70" s="5" t="s">
+      <c r="G70" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="H70" s="5" t="s">
+      <c r="H70" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="I70" s="5" t="s">
+      <c r="I70" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="J70" s="5" t="s">
+      <c r="J70" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="K70" s="5"/>
+      <c r="K70" s="11"/>
     </row>
     <row r="71" spans="1:11" ht="255" x14ac:dyDescent="0.2">
-      <c r="A71" s="3">
+      <c r="A71" s="8">
         <v>76</v>
       </c>
-      <c r="B71" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D71" s="5" t="s">
+      <c r="B71" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C71" s="9"/>
+      <c r="D71" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="E71" s="5" t="s">
+      <c r="E71" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="F71" s="5" t="s">
+      <c r="F71" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="I71" s="5" t="s">
+      <c r="G71" s="9"/>
+      <c r="H71" s="9"/>
+      <c r="I71" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="J71" s="5"/>
-      <c r="K71" s="5"/>
+      <c r="J71" s="9"/>
+      <c r="K71" s="9"/>
     </row>
     <row r="72" spans="1:11" ht="340" x14ac:dyDescent="0.2">
-      <c r="A72" s="3">
+      <c r="A72" s="10">
         <v>77</v>
       </c>
-      <c r="B72" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D72" s="5" t="s">
+      <c r="B72" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C72" s="11"/>
+      <c r="D72" s="11" t="s">
         <v>189</v>
       </c>
-      <c r="E72" s="5" t="s">
+      <c r="E72" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="F72" s="5" t="s">
+      <c r="F72" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="G72" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H72" s="5" t="s">
+      <c r="G72" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H72" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="I72" s="5" t="s">
+      <c r="I72" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="J72" s="5" t="s">
+      <c r="J72" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="K72" s="5"/>
+      <c r="K72" s="11"/>
     </row>
     <row r="73" spans="1:11" ht="289" x14ac:dyDescent="0.2">
-      <c r="A73" s="3">
+      <c r="A73" s="8">
         <v>78</v>
       </c>
-      <c r="B73" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D73" s="5" t="s">
+      <c r="B73" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C73" s="9"/>
+      <c r="D73" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="E73" s="5" t="s">
+      <c r="E73" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="F73" s="5" t="s">
+      <c r="F73" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="G73" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H73" s="5" t="s">
+      <c r="G73" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H73" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="I73" s="5" t="s">
+      <c r="I73" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="J73" s="5"/>
-      <c r="K73" s="5"/>
+      <c r="J73" s="9"/>
+      <c r="K73" s="9"/>
     </row>
     <row r="74" spans="1:11" ht="255" x14ac:dyDescent="0.2">
-      <c r="A74" s="3">
+      <c r="A74" s="10">
         <v>79</v>
       </c>
-      <c r="B74" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D74" s="5" t="s">
+      <c r="B74" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C74" s="11"/>
+      <c r="D74" s="11" t="s">
         <v>193</v>
       </c>
-      <c r="E74" s="5" t="s">
+      <c r="E74" s="11" t="s">
         <v>194</v>
       </c>
-      <c r="F74" s="5" t="s">
+      <c r="F74" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="I74" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="J74" s="5" t="s">
+      <c r="G74" s="11"/>
+      <c r="H74" s="11"/>
+      <c r="I74" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="J74" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="K74" s="5"/>
+      <c r="K74" s="11"/>
     </row>
     <row r="75" spans="1:11" ht="289" x14ac:dyDescent="0.2">
-      <c r="A75" s="3">
+      <c r="A75" s="8">
         <v>80</v>
       </c>
-      <c r="B75" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D75" s="5" t="s">
+      <c r="B75" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C75" s="9"/>
+      <c r="D75" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="E75" s="5" t="s">
+      <c r="E75" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="F75" s="5" t="s">
+      <c r="F75" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G75" s="5" t="s">
+      <c r="G75" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="H75" s="5" t="s">
+      <c r="H75" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="I75" s="5"/>
-      <c r="J75" s="5"/>
-      <c r="K75" s="5"/>
+      <c r="I75" s="9"/>
+      <c r="J75" s="9"/>
+      <c r="K75" s="9"/>
     </row>
     <row r="76" spans="1:11" ht="289" x14ac:dyDescent="0.2">
-      <c r="A76" s="3">
+      <c r="A76" s="10">
         <v>81</v>
       </c>
-      <c r="B76" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D76" s="5" t="s">
+      <c r="B76" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C76" s="11"/>
+      <c r="D76" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="E76" s="5" t="s">
+      <c r="E76" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="F76" s="5" t="s">
+      <c r="F76" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="G76" s="5" t="s">
+      <c r="G76" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="H76" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="I76" s="5" t="s">
+      <c r="H76" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="I76" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="J76" s="5"/>
-      <c r="K76" s="5"/>
+      <c r="J76" s="11"/>
+      <c r="K76" s="11"/>
     </row>
     <row r="77" spans="1:11" ht="323" x14ac:dyDescent="0.2">
-      <c r="A77" s="3">
+      <c r="A77" s="8">
         <v>82</v>
       </c>
-      <c r="B77" s="5" t="s">
+      <c r="B77" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="C77" s="5" t="s">
+      <c r="C77" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="D77" s="5" t="s">
+      <c r="D77" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="E77" s="5" t="s">
+      <c r="E77" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="F77" s="5" t="s">
+      <c r="F77" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="G77" s="5" t="s">
+      <c r="G77" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="H77" s="5" t="s">
+      <c r="H77" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="I77" s="5"/>
-      <c r="J77" s="5"/>
-      <c r="K77" s="5"/>
+      <c r="I77" s="9"/>
+      <c r="J77" s="9"/>
+      <c r="K77" s="9"/>
     </row>
     <row r="78" spans="1:11" ht="306" x14ac:dyDescent="0.2">
-      <c r="A78" s="3">
+      <c r="A78" s="10">
         <v>84</v>
       </c>
-      <c r="B78" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D78" s="5" t="s">
+      <c r="B78" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C78" s="11"/>
+      <c r="D78" s="11" t="s">
         <v>201</v>
       </c>
-      <c r="E78" s="5" t="s">
+      <c r="E78" s="11" t="s">
         <v>202</v>
       </c>
-      <c r="F78" s="5" t="s">
+      <c r="F78" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="G78" s="5" t="s">
+      <c r="G78" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="H78" s="5" t="s">
+      <c r="H78" s="11" t="s">
         <v>203</v>
       </c>
-      <c r="I78" s="5"/>
-      <c r="J78" s="5"/>
-      <c r="K78" s="5"/>
+      <c r="I78" s="11"/>
+      <c r="J78" s="11"/>
+      <c r="K78" s="11"/>
     </row>
     <row r="79" spans="1:11" ht="272" x14ac:dyDescent="0.2">
-      <c r="A79" s="3">
+      <c r="A79" s="8">
         <v>85</v>
       </c>
-      <c r="B79" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D79" s="5" t="s">
+      <c r="B79" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C79" s="9"/>
+      <c r="D79" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="E79" s="5" t="s">
+      <c r="E79" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="F79" s="5" t="s">
+      <c r="F79" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G79" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H79" s="5" t="s">
+      <c r="G79" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H79" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="I79" s="5"/>
-      <c r="J79" s="5"/>
-      <c r="K79" s="5"/>
+      <c r="I79" s="9"/>
+      <c r="J79" s="9"/>
+      <c r="K79" s="9"/>
     </row>
     <row r="80" spans="1:11" ht="340" x14ac:dyDescent="0.2">
-      <c r="A80" s="3">
+      <c r="A80" s="10">
         <v>86</v>
       </c>
-      <c r="B80" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D80" s="5" t="s">
+      <c r="B80" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C80" s="11"/>
+      <c r="D80" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="E80" s="5" t="s">
+      <c r="E80" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="F80" s="5" t="s">
+      <c r="F80" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="I80" s="5" t="s">
+      <c r="G80" s="11"/>
+      <c r="H80" s="11"/>
+      <c r="I80" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="J80" s="5" t="s">
+      <c r="J80" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="K80" s="5"/>
+      <c r="K80" s="11"/>
     </row>
     <row r="81" spans="1:11" ht="289" x14ac:dyDescent="0.2">
-      <c r="A81" s="3">
+      <c r="A81" s="8">
         <v>87</v>
       </c>
-      <c r="B81" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D81" s="5" t="s">
+      <c r="B81" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C81" s="9"/>
+      <c r="D81" s="9" t="s">
         <v>208</v>
       </c>
-      <c r="E81" s="5" t="s">
+      <c r="E81" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="F81" s="5" t="s">
+      <c r="F81" s="9" t="s">
         <v>210</v>
       </c>
-      <c r="I81" s="5" t="s">
+      <c r="G81" s="9"/>
+      <c r="H81" s="9"/>
+      <c r="I81" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="J81" s="5"/>
-      <c r="K81" s="5"/>
+      <c r="J81" s="9"/>
+      <c r="K81" s="9"/>
     </row>
     <row r="82" spans="1:11" ht="323" x14ac:dyDescent="0.2">
-      <c r="A82" s="3">
+      <c r="A82" s="10">
         <v>88</v>
       </c>
-      <c r="B82" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D82" s="5" t="s">
+      <c r="B82" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C82" s="11"/>
+      <c r="D82" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="E82" s="5" t="s">
+      <c r="E82" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="F82" s="5" t="s">
+      <c r="F82" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="G82" s="5" t="s">
+      <c r="G82" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="H82" s="5" t="s">
+      <c r="H82" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="I82" s="5" t="s">
+      <c r="I82" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="J82" s="5" t="s">
+      <c r="J82" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="K82" s="5"/>
+      <c r="K82" s="11"/>
     </row>
     <row r="83" spans="1:11" ht="221" x14ac:dyDescent="0.2">
-      <c r="A83" s="3">
+      <c r="A83" s="8">
         <v>89</v>
       </c>
-      <c r="B83" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D83" s="5" t="s">
+      <c r="B83" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C83" s="9"/>
+      <c r="D83" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="E83" s="5" t="s">
+      <c r="E83" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="F83" s="5" t="s">
+      <c r="F83" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="I83" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="J83" s="5" t="s">
+      <c r="G83" s="9"/>
+      <c r="H83" s="9"/>
+      <c r="I83" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J83" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="K83" s="5"/>
+      <c r="K83" s="9"/>
     </row>
     <row r="84" spans="1:11" ht="221" x14ac:dyDescent="0.2">
-      <c r="A84" s="3">
+      <c r="A84" s="10">
         <v>90</v>
       </c>
-      <c r="B84" s="5" t="s">
+      <c r="B84" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="C84" s="5" t="s">
+      <c r="C84" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="D84" s="5" t="s">
+      <c r="D84" s="11" t="s">
         <v>215</v>
       </c>
-      <c r="E84" s="5" t="s">
+      <c r="E84" s="11" t="s">
         <v>216</v>
       </c>
-      <c r="F84" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="I84" s="5" t="s">
+      <c r="F84" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G84" s="11"/>
+      <c r="H84" s="11"/>
+      <c r="I84" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="J84" s="5"/>
-      <c r="K84" s="5"/>
+      <c r="J84" s="11"/>
+      <c r="K84" s="11"/>
     </row>
     <row r="85" spans="1:11" ht="323" x14ac:dyDescent="0.2">
-      <c r="A85" s="3">
+      <c r="A85" s="8">
         <v>91</v>
       </c>
-      <c r="B85" s="5" t="s">
+      <c r="B85" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D85" s="5" t="s">
+      <c r="C85" s="9"/>
+      <c r="D85" s="9" t="s">
         <v>217</v>
       </c>
-      <c r="E85" s="5" t="s">
+      <c r="E85" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="F85" s="5" t="s">
+      <c r="F85" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="I85" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="J85" s="5" t="s">
+      <c r="G85" s="9"/>
+      <c r="H85" s="9"/>
+      <c r="I85" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J85" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="K85" s="5"/>
+      <c r="K85" s="9"/>
     </row>
     <row r="86" spans="1:11" ht="255" x14ac:dyDescent="0.2">
-      <c r="A86" s="3">
+      <c r="A86" s="10">
         <v>92</v>
       </c>
-      <c r="B86" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D86" s="5" t="s">
+      <c r="B86" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C86" s="11"/>
+      <c r="D86" s="11" t="s">
         <v>219</v>
       </c>
-      <c r="E86" s="5" t="s">
+      <c r="E86" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="F86" s="5" t="s">
+      <c r="F86" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="G86" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="I86" s="5" t="s">
+      <c r="G86" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H86" s="11"/>
+      <c r="I86" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="J86" s="5" t="s">
+      <c r="J86" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="K86" s="5"/>
+      <c r="K86" s="11"/>
     </row>
     <row r="87" spans="1:11" ht="306" x14ac:dyDescent="0.2">
-      <c r="A87" s="3">
+      <c r="A87" s="8">
         <v>93</v>
       </c>
-      <c r="B87" s="5" t="s">
+      <c r="B87" s="9" t="s">
         <v>299</v>
       </c>
-      <c r="D87" s="5" t="s">
+      <c r="C87" s="9"/>
+      <c r="D87" s="9" t="s">
         <v>221</v>
       </c>
-      <c r="E87" s="5" t="s">
+      <c r="E87" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="F87" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G87" s="5" t="s">
+      <c r="F87" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G87" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="H87" s="5" t="s">
+      <c r="H87" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="I87" s="5" t="s">
+      <c r="I87" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="J87" s="5"/>
-      <c r="K87" s="5"/>
+      <c r="J87" s="9"/>
+      <c r="K87" s="9"/>
     </row>
     <row r="88" spans="1:11" ht="272" x14ac:dyDescent="0.2">
-      <c r="A88" s="3">
+      <c r="A88" s="10">
         <v>94</v>
       </c>
-      <c r="B88" s="5" t="s">
+      <c r="B88" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="C88" s="5" t="s">
+      <c r="C88" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="D88" s="5" t="s">
+      <c r="D88" s="11" t="s">
         <v>223</v>
       </c>
-      <c r="E88" s="5" t="s">
+      <c r="E88" s="11" t="s">
         <v>224</v>
       </c>
-      <c r="F88" s="5" t="s">
+      <c r="F88" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="G88" s="5" t="s">
+      <c r="G88" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="H88" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="I88" s="5" t="s">
+      <c r="H88" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="I88" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="J88" s="5"/>
-      <c r="K88" s="5"/>
+      <c r="J88" s="11"/>
+      <c r="K88" s="11"/>
     </row>
     <row r="89" spans="1:11" ht="238" x14ac:dyDescent="0.2">
-      <c r="A89" s="3">
+      <c r="A89" s="8">
         <v>95</v>
       </c>
-      <c r="B89" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D89" s="5" t="s">
+      <c r="B89" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C89" s="9"/>
+      <c r="D89" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="E89" s="5" t="s">
+      <c r="E89" s="9" t="s">
         <v>226</v>
       </c>
-      <c r="F89" s="5" t="s">
+      <c r="F89" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="G89" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="I89" s="5" t="s">
+      <c r="G89" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H89" s="9"/>
+      <c r="I89" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="J89" s="5"/>
-      <c r="K89" s="5"/>
+      <c r="J89" s="9"/>
+      <c r="K89" s="9"/>
     </row>
     <row r="90" spans="1:11" ht="306" x14ac:dyDescent="0.2">
-      <c r="A90" s="3">
+      <c r="A90" s="10">
         <v>96</v>
       </c>
-      <c r="B90" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D90" s="5" t="s">
+      <c r="B90" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C90" s="11"/>
+      <c r="D90" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="E90" s="5" t="s">
+      <c r="E90" s="11" t="s">
         <v>228</v>
       </c>
-      <c r="F90" s="5" t="s">
+      <c r="F90" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="G90" s="5" t="s">
+      <c r="G90" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="H90" s="5" t="s">
+      <c r="H90" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="I90" s="5"/>
-      <c r="J90" s="5"/>
-      <c r="K90" s="5"/>
+      <c r="I90" s="11"/>
+      <c r="J90" s="11"/>
+      <c r="K90" s="11"/>
     </row>
     <row r="91" spans="1:11" ht="204" x14ac:dyDescent="0.2">
-      <c r="A91" s="3">
+      <c r="A91" s="8">
         <v>97</v>
       </c>
-      <c r="B91" s="5" t="s">
+      <c r="B91" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="C91" s="5" t="s">
+      <c r="C91" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="D91" s="5" t="s">
+      <c r="D91" s="9" t="s">
         <v>230</v>
       </c>
-      <c r="E91" s="5" t="s">
+      <c r="E91" s="9" t="s">
         <v>231</v>
       </c>
-      <c r="F91" s="5" t="s">
+      <c r="F91" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="I91" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="J91" s="5"/>
-      <c r="K91" s="5"/>
+      <c r="G91" s="9"/>
+      <c r="H91" s="9"/>
+      <c r="I91" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J91" s="9"/>
+      <c r="K91" s="9"/>
     </row>
     <row r="92" spans="1:11" ht="272" x14ac:dyDescent="0.2">
-      <c r="A92" s="3">
+      <c r="A92" s="10">
         <v>98</v>
       </c>
-      <c r="B92" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D92" s="5" t="s">
+      <c r="B92" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C92" s="11"/>
+      <c r="D92" s="11" t="s">
         <v>232</v>
       </c>
-      <c r="E92" s="5" t="s">
+      <c r="E92" s="11" t="s">
         <v>233</v>
       </c>
-      <c r="F92" s="5" t="s">
+      <c r="F92" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="I92" s="5"/>
-      <c r="J92" s="5"/>
-      <c r="K92" s="5"/>
+      <c r="G92" s="11"/>
+      <c r="H92" s="11"/>
+      <c r="I92" s="11"/>
+      <c r="J92" s="11"/>
+      <c r="K92" s="11"/>
     </row>
     <row r="93" spans="1:11" ht="388" x14ac:dyDescent="0.2">
-      <c r="A93" s="3">
+      <c r="A93" s="8">
         <v>99</v>
       </c>
-      <c r="B93" s="5" t="s">
+      <c r="B93" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="D93" s="5" t="s">
+      <c r="C93" s="9"/>
+      <c r="D93" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="E93" s="5" t="s">
+      <c r="E93" s="9" t="s">
         <v>235</v>
       </c>
-      <c r="F93" s="5" t="s">
+      <c r="F93" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="G93" s="5" t="s">
+      <c r="G93" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="H93" s="5" t="s">
+      <c r="H93" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="I93" s="5" t="s">
+      <c r="I93" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="J93" s="5"/>
-      <c r="K93" s="5"/>
+      <c r="J93" s="9"/>
+      <c r="K93" s="9"/>
     </row>
     <row r="94" spans="1:11" ht="272" x14ac:dyDescent="0.2">
-      <c r="A94" s="3">
+      <c r="A94" s="10">
         <v>100</v>
       </c>
-      <c r="B94" s="5" t="s">
+      <c r="B94" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D94" s="5" t="s">
+      <c r="C94" s="11"/>
+      <c r="D94" s="11" t="s">
         <v>236</v>
       </c>
-      <c r="E94" s="5" t="s">
+      <c r="E94" s="11" t="s">
         <v>237</v>
       </c>
-      <c r="F94" s="5" t="s">
+      <c r="F94" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="I94" s="5" t="s">
+      <c r="G94" s="11"/>
+      <c r="H94" s="11"/>
+      <c r="I94" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="J94" s="5" t="s">
+      <c r="J94" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="K94" s="5"/>
+      <c r="K94" s="11"/>
     </row>
     <row r="95" spans="1:11" ht="323" x14ac:dyDescent="0.2">
-      <c r="A95" s="3">
+      <c r="A95" s="8">
         <v>101</v>
       </c>
-      <c r="B95" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D95" s="5" t="s">
+      <c r="B95" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C95" s="9"/>
+      <c r="D95" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="E95" s="5" t="s">
+      <c r="E95" s="9" t="s">
         <v>239</v>
       </c>
-      <c r="F95" s="5" t="s">
+      <c r="F95" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G95" s="5" t="s">
+      <c r="G95" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="H95" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="I95" s="5" t="s">
+      <c r="H95" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I95" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="J95" s="5"/>
-      <c r="K95" s="5"/>
+      <c r="J95" s="9"/>
+      <c r="K95" s="9"/>
     </row>
     <row r="96" spans="1:11" ht="356" x14ac:dyDescent="0.2">
-      <c r="A96" s="3">
+      <c r="A96" s="10">
         <v>102</v>
       </c>
-      <c r="B96" s="5" t="s">
+      <c r="B96" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="C96" s="5" t="s">
+      <c r="C96" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="D96" s="5" t="s">
+      <c r="D96" s="11" t="s">
         <v>241</v>
       </c>
-      <c r="E96" s="5" t="s">
+      <c r="E96" s="11" t="s">
         <v>242</v>
       </c>
-      <c r="F96" s="5" t="s">
+      <c r="F96" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="I96" s="5" t="s">
+      <c r="G96" s="11"/>
+      <c r="H96" s="11"/>
+      <c r="I96" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="J96" s="5" t="s">
+      <c r="J96" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="K96" s="5"/>
+      <c r="K96" s="11"/>
     </row>
     <row r="97" spans="1:11" ht="204" x14ac:dyDescent="0.2">
-      <c r="A97" s="3">
+      <c r="A97" s="8">
         <v>103</v>
       </c>
-      <c r="B97" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D97" s="5" t="s">
+      <c r="B97" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C97" s="9"/>
+      <c r="D97" s="9" t="s">
         <v>243</v>
       </c>
-      <c r="E97" s="5" t="s">
+      <c r="E97" s="9" t="s">
         <v>244</v>
       </c>
-      <c r="F97" s="5" t="s">
+      <c r="F97" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="G97" s="5" t="s">
+      <c r="G97" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="I97" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="J97" s="5" t="s">
+      <c r="H97" s="9"/>
+      <c r="I97" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J97" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="K97" s="5"/>
+      <c r="K97" s="9"/>
     </row>
     <row r="98" spans="1:11" ht="255" x14ac:dyDescent="0.2">
-      <c r="A98" s="3">
+      <c r="A98" s="10">
         <v>104</v>
       </c>
-      <c r="B98" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D98" s="5" t="s">
+      <c r="B98" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C98" s="11"/>
+      <c r="D98" s="11" t="s">
         <v>245</v>
       </c>
-      <c r="E98" s="5" t="s">
+      <c r="E98" s="11" t="s">
         <v>246</v>
       </c>
-      <c r="F98" s="5" t="s">
+      <c r="F98" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="G98" s="5" t="s">
+      <c r="G98" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="H98" s="5" t="s">
+      <c r="H98" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="I98" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="J98" s="5" t="s">
+      <c r="I98" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="J98" s="11" t="s">
         <v>294</v>
       </c>
-      <c r="K98" s="5"/>
+      <c r="K98" s="11"/>
     </row>
     <row r="99" spans="1:11" ht="255" x14ac:dyDescent="0.2">
-      <c r="A99" s="3">
+      <c r="A99" s="8">
         <v>105</v>
       </c>
-      <c r="B99" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D99" s="5" t="s">
+      <c r="B99" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C99" s="9"/>
+      <c r="D99" s="9" t="s">
         <v>247</v>
       </c>
-      <c r="E99" s="5" t="s">
+      <c r="E99" s="9" t="s">
         <v>248</v>
       </c>
-      <c r="F99" s="5" t="s">
+      <c r="F99" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="G99" s="5" t="s">
+      <c r="G99" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="H99" s="5" t="s">
+      <c r="H99" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="I99" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="J99" s="5" t="s">
+      <c r="I99" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J99" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="K99" s="5"/>
+      <c r="K99" s="9"/>
     </row>
     <row r="100" spans="1:11" ht="272" x14ac:dyDescent="0.2">
-      <c r="A100" s="3">
+      <c r="A100" s="10">
         <v>106</v>
       </c>
-      <c r="B100" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D100" s="5" t="s">
+      <c r="B100" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C100" s="11"/>
+      <c r="D100" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="E100" s="5" t="s">
+      <c r="E100" s="11" t="s">
         <v>250</v>
       </c>
-      <c r="F100" s="5" t="s">
+      <c r="F100" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="I100" s="5"/>
-      <c r="J100" s="5"/>
-      <c r="K100" s="5"/>
+      <c r="G100" s="11"/>
+      <c r="H100" s="11"/>
+      <c r="I100" s="11"/>
+      <c r="J100" s="11"/>
+      <c r="K100" s="11"/>
     </row>
     <row r="101" spans="1:11" ht="306" x14ac:dyDescent="0.2">
-      <c r="A101" s="3">
+      <c r="A101" s="8">
         <v>107</v>
       </c>
-      <c r="B101" s="5" t="s">
+      <c r="B101" s="9" t="s">
         <v>299</v>
       </c>
-      <c r="C101" s="5" t="s">
+      <c r="C101" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="D101" s="5" t="s">
+      <c r="D101" s="9" t="s">
         <v>252</v>
       </c>
-      <c r="E101" s="5" t="s">
+      <c r="E101" s="9" t="s">
         <v>253</v>
       </c>
-      <c r="F101" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G101" s="5" t="s">
+      <c r="F101" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G101" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="H101" s="5" t="s">
+      <c r="H101" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="I101" s="5" t="s">
+      <c r="I101" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="J101" s="5" t="s">
+      <c r="J101" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="K101" s="5"/>
+      <c r="K101" s="9"/>
     </row>
     <row r="102" spans="1:11" ht="238" x14ac:dyDescent="0.2">
-      <c r="A102" s="3">
+      <c r="A102" s="10">
         <v>108</v>
       </c>
-      <c r="B102" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D102" s="5" t="s">
+      <c r="B102" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C102" s="11"/>
+      <c r="D102" s="11" t="s">
         <v>254</v>
       </c>
-      <c r="E102" s="5" t="s">
+      <c r="E102" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="F102" s="5" t="s">
+      <c r="F102" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="G102" s="5" t="s">
+      <c r="G102" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="H102" s="5" t="s">
+      <c r="H102" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="I102" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="J102" s="5" t="s">
+      <c r="I102" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="J102" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="K102" s="5"/>
+      <c r="K102" s="11"/>
     </row>
     <row r="103" spans="1:11" ht="289" x14ac:dyDescent="0.2">
-      <c r="A103" s="3">
+      <c r="A103" s="8">
         <v>109</v>
       </c>
-      <c r="B103" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D103" s="5" t="s">
+      <c r="B103" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C103" s="9"/>
+      <c r="D103" s="9" t="s">
         <v>256</v>
       </c>
-      <c r="E103" s="5" t="s">
+      <c r="E103" s="9" t="s">
         <v>257</v>
       </c>
-      <c r="F103" s="5" t="s">
+      <c r="F103" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="I103" s="5" t="s">
+      <c r="G103" s="9"/>
+      <c r="H103" s="9"/>
+      <c r="I103" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="J103" s="5" t="s">
+      <c r="J103" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="K103" s="5"/>
+      <c r="K103" s="9"/>
     </row>
     <row r="104" spans="1:11" ht="306" x14ac:dyDescent="0.2">
-      <c r="A104" s="3">
+      <c r="A104" s="10">
         <v>110</v>
       </c>
-      <c r="B104" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D104" s="5" t="s">
+      <c r="B104" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C104" s="11"/>
+      <c r="D104" s="11" t="s">
         <v>258</v>
       </c>
-      <c r="E104" s="5" t="s">
+      <c r="E104" s="11" t="s">
         <v>259</v>
       </c>
-      <c r="F104" s="5" t="s">
+      <c r="F104" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="G104" s="5" t="s">
+      <c r="G104" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="H104" s="5" t="s">
+      <c r="H104" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I104" s="5" t="s">
+      <c r="I104" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="J104" s="5" t="s">
+      <c r="J104" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="K104" s="5"/>
+      <c r="K104" s="11"/>
     </row>
     <row r="105" spans="1:11" ht="306" x14ac:dyDescent="0.2">
-      <c r="A105" s="3">
+      <c r="A105" s="8">
         <v>111</v>
       </c>
-      <c r="B105" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D105" s="5" t="s">
+      <c r="B105" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C105" s="9"/>
+      <c r="D105" s="9" t="s">
         <v>260</v>
       </c>
-      <c r="E105" s="5" t="s">
+      <c r="E105" s="9" t="s">
         <v>261</v>
       </c>
-      <c r="F105" s="5" t="s">
+      <c r="F105" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="G105" s="5" t="s">
+      <c r="G105" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="H105" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="I105" s="5" t="s">
+      <c r="H105" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I105" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="J105" s="5" t="s">
+      <c r="J105" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="K105" s="5"/>
+      <c r="K105" s="9"/>
     </row>
     <row r="106" spans="1:11" ht="289" x14ac:dyDescent="0.2">
-      <c r="A106" s="3">
+      <c r="A106" s="10">
         <v>112</v>
       </c>
-      <c r="B106" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D106" s="5" t="s">
+      <c r="B106" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C106" s="11"/>
+      <c r="D106" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="E106" s="5" t="s">
+      <c r="E106" s="11" t="s">
         <v>263</v>
       </c>
-      <c r="F106" s="5" t="s">
+      <c r="F106" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G106" s="5" t="s">
+      <c r="G106" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="H106" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="I106" s="5"/>
-      <c r="J106" s="5"/>
-      <c r="K106" s="5"/>
+      <c r="H106" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="I106" s="11"/>
+      <c r="J106" s="11"/>
+      <c r="K106" s="11"/>
     </row>
     <row r="107" spans="1:11" ht="221" x14ac:dyDescent="0.2">
-      <c r="A107" s="3">
+      <c r="A107" s="8">
         <v>113</v>
       </c>
-      <c r="B107" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D107" s="5" t="s">
+      <c r="B107" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C107" s="9"/>
+      <c r="D107" s="9" t="s">
         <v>264</v>
       </c>
-      <c r="E107" s="5" t="s">
+      <c r="E107" s="9" t="s">
         <v>265</v>
       </c>
-      <c r="F107" s="5" t="s">
+      <c r="F107" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="G107" s="5" t="s">
+      <c r="G107" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="I107" s="5" t="s">
+      <c r="H107" s="9"/>
+      <c r="I107" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="J107" s="5"/>
-      <c r="K107" s="5"/>
+      <c r="J107" s="9"/>
+      <c r="K107" s="9"/>
     </row>
     <row r="108" spans="1:11" ht="153" x14ac:dyDescent="0.2">
-      <c r="A108" s="3">
+      <c r="A108" s="10">
         <v>114</v>
       </c>
-      <c r="B108" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D108" s="5" t="s">
+      <c r="B108" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C108" s="11"/>
+      <c r="D108" s="11" t="s">
         <v>266</v>
       </c>
-      <c r="E108" s="5" t="s">
+      <c r="E108" s="11" t="s">
         <v>267</v>
       </c>
-      <c r="F108" s="5" t="s">
+      <c r="F108" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="I108" s="5" t="s">
+      <c r="G108" s="11"/>
+      <c r="H108" s="11"/>
+      <c r="I108" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="J108" s="5"/>
-      <c r="K108" s="5"/>
+      <c r="J108" s="11"/>
+      <c r="K108" s="11"/>
     </row>
     <row r="109" spans="1:11" ht="238" x14ac:dyDescent="0.2">
-      <c r="A109" s="3">
+      <c r="A109" s="8">
         <v>115</v>
       </c>
-      <c r="B109" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D109" s="5" t="s">
+      <c r="B109" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C109" s="9"/>
+      <c r="D109" s="9" t="s">
         <v>268</v>
       </c>
-      <c r="E109" s="5" t="s">
+      <c r="E109" s="9" t="s">
         <v>269</v>
       </c>
-      <c r="F109" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G109" s="5" t="s">
+      <c r="F109" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G109" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="H109" s="5" t="s">
+      <c r="H109" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="I109" s="5"/>
-      <c r="J109" s="5"/>
-      <c r="K109" s="5"/>
+      <c r="I109" s="9"/>
+      <c r="J109" s="9"/>
+      <c r="K109" s="9"/>
     </row>
     <row r="110" spans="1:11" ht="272" x14ac:dyDescent="0.2">
-      <c r="A110" s="3">
+      <c r="A110" s="10">
         <v>116</v>
       </c>
-      <c r="B110" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D110" s="5" t="s">
+      <c r="B110" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C110" s="11"/>
+      <c r="D110" s="11" t="s">
         <v>270</v>
       </c>
-      <c r="E110" s="5" t="s">
+      <c r="E110" s="11" t="s">
         <v>271</v>
       </c>
-      <c r="F110" s="5" t="s">
+      <c r="F110" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="G110" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="I110" s="5" t="s">
+      <c r="G110" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H110" s="11"/>
+      <c r="I110" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="J110" s="5" t="s">
+      <c r="J110" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="K110" s="5"/>
+      <c r="K110" s="11"/>
     </row>
     <row r="111" spans="1:11" ht="187" x14ac:dyDescent="0.2">
-      <c r="A111" s="3">
+      <c r="A111" s="8">
         <v>117</v>
       </c>
-      <c r="B111" s="5" t="s">
+      <c r="B111" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="C111" s="5" t="s">
+      <c r="C111" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="D111" s="5" t="s">
+      <c r="D111" s="9" t="s">
         <v>272</v>
       </c>
-      <c r="E111" s="5" t="s">
+      <c r="E111" s="9" t="s">
         <v>273</v>
       </c>
-      <c r="F111" s="5" t="s">
+      <c r="F111" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G111" s="5" t="s">
+      <c r="G111" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="I111" s="5"/>
-      <c r="J111" s="5"/>
-      <c r="K111" s="5"/>
+      <c r="H111" s="9"/>
+      <c r="I111" s="9"/>
+      <c r="J111" s="9"/>
+      <c r="K111" s="9"/>
     </row>
     <row r="112" spans="1:11" ht="306" x14ac:dyDescent="0.2">
-      <c r="A112" s="3">
+      <c r="A112" s="10">
         <v>118</v>
       </c>
-      <c r="B112" s="5" t="s">
+      <c r="B112" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="C112" s="5" t="s">
+      <c r="C112" s="11" t="s">
         <v>251</v>
       </c>
-      <c r="D112" s="5" t="s">
+      <c r="D112" s="11" t="s">
         <v>274</v>
       </c>
-      <c r="E112" s="5" t="s">
+      <c r="E112" s="11" t="s">
         <v>275</v>
       </c>
-      <c r="F112" s="5" t="s">
+      <c r="F112" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="I112" s="5" t="s">
+      <c r="G112" s="11"/>
+      <c r="H112" s="11"/>
+      <c r="I112" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="J112" s="5" t="s">
+      <c r="J112" s="11" t="s">
         <v>298</v>
       </c>
-      <c r="K112" s="5"/>
+      <c r="K112" s="11"/>
     </row>
     <row r="113" spans="1:11" ht="221" x14ac:dyDescent="0.2">
-      <c r="A113" s="3">
+      <c r="A113" s="8">
         <v>119</v>
       </c>
-      <c r="B113" s="5" t="s">
+      <c r="B113" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="C113" s="5" t="s">
+      <c r="C113" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="D113" s="5" t="s">
+      <c r="D113" s="9" t="s">
         <v>276</v>
       </c>
-      <c r="E113" s="5" t="s">
+      <c r="E113" s="9" t="s">
         <v>277</v>
       </c>
-      <c r="F113" s="5" t="s">
+      <c r="F113" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="G113" s="5" t="s">
+      <c r="G113" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="H113" s="5" t="s">
+      <c r="H113" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="I113" s="5" t="s">
+      <c r="I113" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="J113" s="5"/>
-      <c r="K113" s="5"/>
+      <c r="J113" s="9"/>
+      <c r="K113" s="9"/>
     </row>
     <row r="114" spans="1:11" ht="255" x14ac:dyDescent="0.2">
-      <c r="A114" s="3">
+      <c r="A114" s="10">
         <v>120</v>
       </c>
-      <c r="B114" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D114" s="5" t="s">
+      <c r="B114" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C114" s="11"/>
+      <c r="D114" s="11" t="s">
         <v>278</v>
       </c>
-      <c r="E114" s="5" t="s">
+      <c r="E114" s="11" t="s">
         <v>279</v>
       </c>
-      <c r="F114" s="5" t="s">
+      <c r="F114" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G114" s="5" t="s">
+      <c r="G114" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="H114" s="5" t="s">
+      <c r="H114" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="I114" s="5"/>
-      <c r="J114" s="5"/>
-      <c r="K114" s="5"/>
+      <c r="I114" s="11"/>
+      <c r="J114" s="11"/>
+      <c r="K114" s="11"/>
     </row>
     <row r="115" spans="1:11" ht="340" x14ac:dyDescent="0.2">
-      <c r="A115" s="3">
+      <c r="A115" s="8">
         <v>121</v>
       </c>
-      <c r="B115" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D115" s="5" t="s">
+      <c r="B115" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C115" s="9"/>
+      <c r="D115" s="9" t="s">
         <v>280</v>
       </c>
-      <c r="E115" s="5" t="s">
+      <c r="E115" s="9" t="s">
         <v>281</v>
       </c>
-      <c r="F115" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="I115" s="5" t="s">
+      <c r="F115" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G115" s="9"/>
+      <c r="H115" s="9"/>
+      <c r="I115" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="J115" s="5" t="s">
+      <c r="J115" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="K115" s="5"/>
+      <c r="K115" s="9"/>
     </row>
     <row r="116" spans="1:11" ht="289" x14ac:dyDescent="0.2">
-      <c r="A116" s="3">
+      <c r="A116" s="10">
         <v>122</v>
       </c>
-      <c r="B116" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D116" s="5" t="s">
+      <c r="B116" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C116" s="11"/>
+      <c r="D116" s="11" t="s">
         <v>282</v>
       </c>
-      <c r="E116" s="5" t="s">
+      <c r="E116" s="11" t="s">
         <v>283</v>
       </c>
-      <c r="F116" s="5" t="s">
+      <c r="F116" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="G116" s="5" t="s">
+      <c r="G116" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="H116" s="5" t="s">
+      <c r="H116" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="I116" s="5" t="s">
+      <c r="I116" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="J116" s="5" t="s">
+      <c r="J116" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="K116" s="5"/>
+      <c r="K116" s="11"/>
     </row>
     <row r="117" spans="1:11" ht="323" x14ac:dyDescent="0.2">
-      <c r="A117" s="3">
+      <c r="A117" s="8">
         <v>123</v>
       </c>
-      <c r="B117" s="5" t="s">
+      <c r="B117" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C117" s="5" t="s">
+      <c r="C117" s="9" t="s">
         <v>284</v>
       </c>
-      <c r="D117" s="5" t="s">
+      <c r="D117" s="9" t="s">
         <v>285</v>
       </c>
-      <c r="E117" s="5" t="s">
+      <c r="E117" s="9" t="s">
         <v>286</v>
       </c>
-      <c r="F117" s="5" t="s">
+      <c r="F117" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="G117" s="5" t="s">
+      <c r="G117" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="H117" s="5" t="s">
+      <c r="H117" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="I117" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="J117" s="5" t="s">
+      <c r="I117" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J117" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="K117" s="5"/>
+      <c r="K117" s="9"/>
     </row>
     <row r="118" spans="1:11" ht="204" x14ac:dyDescent="0.2">
-      <c r="A118" s="3">
+      <c r="A118" s="10">
         <v>124</v>
       </c>
-      <c r="B118" s="5" t="s">
+      <c r="B118" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="C118" s="5" t="s">
+      <c r="C118" s="11" t="s">
         <v>287</v>
       </c>
-      <c r="D118" s="5" t="s">
+      <c r="D118" s="11" t="s">
         <v>288</v>
       </c>
-      <c r="E118" s="5" t="s">
+      <c r="E118" s="11" t="s">
         <v>289</v>
       </c>
-      <c r="F118" s="5" t="s">
+      <c r="F118" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="I118" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="J118" s="5" t="s">
+      <c r="G118" s="11"/>
+      <c r="H118" s="11"/>
+      <c r="I118" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="J118" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="K118" s="5"/>
+      <c r="K118" s="11"/>
     </row>
     <row r="119" spans="1:11" ht="221" x14ac:dyDescent="0.2">
-      <c r="A119" s="3">
+      <c r="A119" s="8">
         <v>125</v>
       </c>
-      <c r="B119" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D119" s="5" t="s">
+      <c r="B119" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C119" s="9"/>
+      <c r="D119" s="9" t="s">
         <v>290</v>
       </c>
-      <c r="E119" s="5" t="s">
+      <c r="E119" s="9" t="s">
         <v>291</v>
       </c>
-      <c r="F119" s="5" t="s">
+      <c r="F119" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="I119" s="5"/>
-      <c r="J119" s="5"/>
-      <c r="K119" s="5"/>
+      <c r="G119" s="9"/>
+      <c r="H119" s="9"/>
+      <c r="I119" s="9"/>
+      <c r="J119" s="9"/>
+      <c r="K119" s="9"/>
     </row>
     <row r="120" spans="1:11" ht="289" x14ac:dyDescent="0.2">
-      <c r="A120" s="3">
+      <c r="A120" s="12">
         <v>126</v>
       </c>
-      <c r="B120" s="5" t="s">
+      <c r="B120" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="C120" s="5" t="s">
+      <c r="C120" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="D120" s="5" t="s">
+      <c r="D120" s="13" t="s">
         <v>292</v>
       </c>
-      <c r="E120" s="5" t="s">
+      <c r="E120" s="13" t="s">
         <v>293</v>
       </c>
-      <c r="F120" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G120" s="5" t="s">
+      <c r="F120" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G120" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="I120" s="5"/>
-      <c r="J120" s="5"/>
-      <c r="K120" s="5"/>
+      <c r="H120" s="13"/>
+      <c r="I120" s="13"/>
+      <c r="J120" s="13"/>
+      <c r="K120" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
 </worksheet>
 </file>
--- a/AssetsHonsPrelimTA2024/data/Prelim_Hons_Thesis_Titles_and_Abstracts_2024_FinalX.xlsx
+++ b/AssetsHonsPrelimTA2024/data/Prelim_Hons_Thesis_Titles_and_Abstracts_2024_FinalX.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christopherbean/Documents/GitHub/drcgb.github.io/AssetsHonsPrelimTA2024/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F69FA82C-0943-EE4E-AA91-4B0EBDB11DB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EF6CFCC-82AC-FD4E-98F6-56BAA749DE12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="26880" xr2:uid="{D65AE397-B8D4-2049-9FF4-B8C90A09C2A0}"/>
   </bookViews>
@@ -252,12 +252,6 @@
     <t>Effectiveness of Cognitive Behavioural Therapy for Depression in Multiple Sclerosis: A Systematic Review and Meta-Analysis</t>
   </si>
   <si>
-    <t xml:space="preserve">Background: Depression is prevalent in people living with Multiple Sclerosis (pwMS), with no gold-standard treatment recognised for reducing symptoms. Although Cognitive Behavioural Therapy (CBT) is the most examined treatment for depression across the lifespan, its efficacy for pwMS is unclear. Aims: To obtain a pooled estimate of CBT’s effect and investigate potential sample (e.g., baseline depression levels, MS duration) and intervention characteristics (e.g., delivery form, intensity) that may influence its effectiveness. Methods: A systematic search of Embase, MEDLINE, Scopus, Cochrane Library and PsycINFO databases (no date limits) was conducted on the 13th of March, to identify randomised controlled trials of CBT for depression in pwMS. Included studies were critically appraised using the Joanna Briggs Institute (JBI) tool and effect sizes (Hedges’ g) were pooled using random and mixed effects modelling. Results: Thirteen independent studies, involving a combined sample of 909 adults with various forms of MS, were identified. CBT was more effective than waitlist controls and other established treatments (e.g., Supportive therapy) in reducing depression levels (gw = 0.76, CI [0.44, 1.20]). Noted gains had, however, diminished by follow-up (gw = 0.09, CI [-0.09, 0.26], Nstudies = 7). Aside from those newly diagnosed showing greater receptivity to the intervention (Q (1) = 9.11, p &lt; .05), no other treatment moderators were identified. Conclusions: CBT is effective in managing depression symptoms in pwMS. However, more rigorous, controlled studies are needed to examine the potential enduring effect CBT can have on MS-related depression as well as the mechanisms underlying any treatment effects.  
-Protocol registration: Open Science Framework (https://osf.io/sy6n5/)
-Keywords: Multiple Sclerosis, depression, cognitive behavioural therapy
-</t>
-  </si>
-  <si>
     <t>Navigating Modern Intimacy: A Qualitative Exploration of the Influence of Hookup Culture on Experiences of Sex and Relationships</t>
   </si>
   <si>
@@ -976,9 +970,6 @@
     <t>Effectiveness of mental health interventions for family medicine and general practice trainees: A systematic review with meta-analysis</t>
   </si>
   <si>
-    <t>Background: Family medicine/general practice (FM/GP) trainees are increasingly recognised as at risk of occupational burnout, highlighting a need to examine which interventions are effective. Aims: To systematically review and quantitatively assess the empirical evidence for psychosocial interventions targeted to FM/GP trainees to reduce burnout and/or promote well-being. Methods: Eligible studies included FM/GP trainees undergoing psychosocial interventions aimed at reducing burnout/improving well-being. A large search on databases such as PsycInfo, Medline, Embase and ProQuest was performed without date restrictions. Studies were assessed by two reviewers for their risk of bias, using the Mixed Methods Appraisal Tool (MMAT) and achieved high inter-rater agreement (88%). Hedges' g effect size estimations were used to synthesise the data and pooled across trials using a random effects model. Publication bias was evaluated and causes of heterogeneity were investigated using moderator analyses. Results: Thirteen studies including 230 FM/GP trainees were included, with interventions focusing on organisational and individual levels. Individually based interventions showed a moderately large and statistically significant treatment effect (g = 0.483, 95% CI [0.096, 0.870], p &lt;.05), however group differences were not observed. Qualitative feedback received from participants suggested interventions should focus on the importance of curriculum modifications and organised group support. Conclusions: Although some results displayed statistical significance, these results should be regarded cautiously because of the small sample sizes and possible bias. Overall, the findings of this study highlight the severity of burnout and its effects on well-being and the need for interventions to reduce these symptoms. Protocol was registered on Open Science Framework (osf.io/wngx4). Keywords: Burnout, Family Medicine, General Practice, Trainee</t>
-  </si>
-  <si>
     <t>Framework Analysis</t>
   </si>
   <si>
@@ -1016,6 +1007,15 @@
   </si>
   <si>
     <t>Mixed-Methods</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background: Depression is prevalent in people living with Multiple Sclerosis (pwMS), with no gold-standard treatment recognised for reducing symptoms. Although Cognitive Behavioural Therapy (CBT) is the most examined treatment for depression across the lifespan, its efficacy for pwMS is unclear. Aims: To obtain a pooled estimate of CBT’s effect and investigate potential sample (e.g., baseline depression levels, MS duration) and intervention characteristics (e.g., delivery form, intensity) that may influence its effectiveness. Methods: A systematic search of Embase, MEDLINE, Scopus, Cochrane Library and PsycINFO databases (no date limits) was conducted on the 13th of March, to identify randomised controlled trials of CBT for depression in pwMS. Included studies were critically appraised using the Joanna Briggs Institute (JBI) tool and effect sizes (Hedges’ g) were pooled using random and mixed effects modelling. Results: Thirteen independent studies, involving a combined sample of 909 adults with various forms of MS, were identified. CBT was more effective than waitlist controls and other established treatments (e.g., Supportive therapy) in reducing depression levels (gw = 0.76, CI [0.44, 1.20]). Noted gains had, however, diminished by follow-up (gw = 0.09, CI [-0.09, 0.26], Nstudies = 7). Aside from those newly diagnosed showing greater receptivity to the intervention (Q (1) = 9.11, p &lt; .05), no other treatment moderators were identified. Conclusions: CBT is effective in managing depression symptoms in pwMS. However, more rigorous, controlled studies are needed to examine the potential enduring effect CBT can have on MS-related depression as well as the mechanisms underlying any treatment effects.  
+Protocol registration: Open Science Framework (xxxx)
+Keywords: Multiple Sclerosis, depression, cognitive behavioural therapy
+</t>
+  </si>
+  <si>
+    <t>Background: Family medicine/general practice (FM/GP) trainees are increasingly recognised as at risk of occupational burnout, highlighting a need to examine which interventions are effective. Aims: To systematically review and quantitatively assess the empirical evidence for psychosocial interventions targeted to FM/GP trainees to reduce burnout and/or promote well-being. Methods: Eligible studies included FM/GP trainees undergoing psychosocial interventions aimed at reducing burnout/improving well-being. A large search on databases such as PsycInfo, Medline, Embase and ProQuest was performed without date restrictions. Studies were assessed by two reviewers for their risk of bias, using the Mixed Methods Appraisal Tool (MMAT) and achieved high inter-rater agreement (88%). Hedges' g effect size estimations were used to synthesise the data and pooled across trials using a random effects model. Publication bias was evaluated and causes of heterogeneity were investigated using moderator analyses. Results: Thirteen studies including 230 FM/GP trainees were included, with interventions focusing on organisational and individual levels. Individually based interventions showed a moderately large and statistically significant treatment effect (g = 0.483, 95% CI [0.096, 0.870], p &lt;.05), however group differences were not observed. Qualitative feedback received from participants suggested interventions should focus on the importance of curriculum modifications and organised group support. Conclusions: Although some results displayed statistical significance, these results should be regarded cautiously because of the small sample sizes and possible bias. Overall, the findings of this study highlight the severity of burnout and its effects on well-being and the need for interventions to reduce these symptoms. Protocol was registered on Open Science Framework (osf.io/xxxx). Keywords: Burnout, Family Medicine, General Practice, Trainee</t>
   </si>
 </sst>
 </file>
@@ -1938,10 +1938,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59BFD390-3B9D-B84B-A0C7-E2BE4A98CFC4}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:K120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1982,13 +1983,13 @@
         <v>7</v>
       </c>
       <c r="I1" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="K1" s="5" t="s">
         <v>294</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="187" x14ac:dyDescent="0.2">
@@ -2014,7 +2015,7 @@
         <v>44</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="K2" s="7"/>
     </row>
@@ -2066,7 +2067,7 @@
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
       <c r="I4" s="9" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="J4" s="9"/>
       <c r="K4" s="9"/>
@@ -2091,7 +2092,7 @@
         <v>22</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
@@ -2124,7 +2125,7 @@
         <v>44</v>
       </c>
       <c r="K6" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="238" x14ac:dyDescent="0.2">
@@ -2147,7 +2148,7 @@
         <v>21</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K7" s="3"/>
     </row>
@@ -2174,7 +2175,7 @@
         <v>21</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K8" s="9"/>
     </row>
@@ -2195,7 +2196,7 @@
         <v>21</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
@@ -2222,10 +2223,10 @@
       </c>
       <c r="H10" s="9"/>
       <c r="I10" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="K10" s="9"/>
     </row>
@@ -2249,7 +2250,7 @@
         <v>14</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
@@ -2280,7 +2281,7 @@
         <v>55</v>
       </c>
       <c r="K12" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="255" x14ac:dyDescent="0.2">
@@ -2306,7 +2307,7 @@
         <v>22</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
@@ -2334,7 +2335,7 @@
       <c r="H14" s="9"/>
       <c r="I14" s="9"/>
       <c r="J14" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K14" s="9"/>
     </row>
@@ -2364,7 +2365,7 @@
         <v>55</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
@@ -2474,7 +2475,7 @@
         <v>65</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="323" x14ac:dyDescent="0.2">
@@ -2489,7 +2490,7 @@
         <v>70</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>71</v>
+        <v>297</v>
       </c>
       <c r="F20" s="9" t="s">
         <v>54</v>
@@ -2517,20 +2518,20 @@
         <v>67</v>
       </c>
       <c r="D21" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E21" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>73</v>
-      </c>
       <c r="F21" s="3" t="s">
         <v>21</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="I21" s="3"/>
       <c r="J21" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K21" s="3"/>
     </row>
@@ -2543,10 +2544,10 @@
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E22" s="9" t="s">
         <v>74</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>75</v>
       </c>
       <c r="F22" s="9" t="s">
         <v>55</v>
@@ -2569,10 +2570,10 @@
         <v>8</v>
       </c>
       <c r="D23" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E23" s="3" t="s">
         <v>76</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>77</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>22</v>
@@ -2581,7 +2582,7 @@
         <v>11</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>25</v>
@@ -2590,7 +2591,7 @@
         <v>65</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="238" x14ac:dyDescent="0.2">
@@ -2602,10 +2603,10 @@
       </c>
       <c r="C24" s="9"/>
       <c r="D24" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="E24" s="9" t="s">
         <v>79</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>80</v>
       </c>
       <c r="F24" s="9" t="s">
         <v>11</v>
@@ -2616,7 +2617,7 @@
         <v>21</v>
       </c>
       <c r="J24" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K24" s="9"/>
     </row>
@@ -2628,16 +2629,16 @@
         <v>8</v>
       </c>
       <c r="D25" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E25" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="E25" s="3" t="s">
-        <v>82</v>
-      </c>
       <c r="F25" s="3" t="s">
         <v>21</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
@@ -2653,13 +2654,13 @@
         <v>67</v>
       </c>
       <c r="D26" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="E26" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="E26" s="9" t="s">
+      <c r="F26" s="9" t="s">
         <v>84</v>
-      </c>
-      <c r="F26" s="9" t="s">
-        <v>85</v>
       </c>
       <c r="G26" s="9" t="s">
         <v>58</v>
@@ -2681,10 +2682,10 @@
         <v>8</v>
       </c>
       <c r="D27" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E27" s="3" t="s">
         <v>86</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>87</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>22</v>
@@ -2702,23 +2703,23 @@
       </c>
       <c r="C28" s="9"/>
       <c r="D28" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="E28" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="E28" s="9" t="s">
+      <c r="F28" s="9" t="s">
         <v>89</v>
-      </c>
-      <c r="F28" s="9" t="s">
-        <v>90</v>
       </c>
       <c r="G28" s="9" t="s">
         <v>21</v>
       </c>
       <c r="H28" s="9"/>
       <c r="I28" s="9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J28" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K28" s="9"/>
     </row>
@@ -2730,10 +2731,10 @@
         <v>8</v>
       </c>
       <c r="D29" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E29" s="3" t="s">
         <v>91</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>92</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>11</v>
@@ -2759,10 +2760,10 @@
       </c>
       <c r="C30" s="9"/>
       <c r="D30" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="E30" s="9" t="s">
         <v>93</v>
-      </c>
-      <c r="E30" s="9" t="s">
-        <v>94</v>
       </c>
       <c r="F30" s="9" t="s">
         <v>11</v>
@@ -2771,7 +2772,7 @@
         <v>21</v>
       </c>
       <c r="H30" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2785,16 +2786,16 @@
         <v>8</v>
       </c>
       <c r="D31" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E31" s="3" t="s">
         <v>95</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>96</v>
       </c>
       <c r="F31" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H31" s="3" t="s">
         <v>22</v>
@@ -2818,10 +2819,10 @@
       </c>
       <c r="C32" s="9"/>
       <c r="D32" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="E32" s="9" t="s">
         <v>98</v>
-      </c>
-      <c r="E32" s="9" t="s">
-        <v>99</v>
       </c>
       <c r="F32" s="9" t="s">
         <v>55</v>
@@ -2830,7 +2831,7 @@
         <v>30</v>
       </c>
       <c r="H32" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I32" s="9" t="s">
         <v>21</v>
@@ -2848,13 +2849,13 @@
         <v>8</v>
       </c>
       <c r="D33" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E33" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="E33" s="3" t="s">
+      <c r="F33" s="3" t="s">
         <v>102</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>103</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>21</v>
@@ -2863,7 +2864,7 @@
         <v>55</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="272" x14ac:dyDescent="0.2">
@@ -2875,10 +2876,10 @@
       </c>
       <c r="C34" s="9"/>
       <c r="D34" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="E34" s="9" t="s">
         <v>104</v>
-      </c>
-      <c r="E34" s="9" t="s">
-        <v>105</v>
       </c>
       <c r="F34" s="9" t="s">
         <v>22</v>
@@ -2890,7 +2891,7 @@
         <v>30</v>
       </c>
       <c r="I34" s="9" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
@@ -2906,10 +2907,10 @@
         <v>67</v>
       </c>
       <c r="D35" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E35" s="3" t="s">
         <v>106</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>107</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>39</v>
@@ -2929,10 +2930,10 @@
       </c>
       <c r="C36" s="9"/>
       <c r="D36" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="E36" s="9" t="s">
         <v>108</v>
-      </c>
-      <c r="E36" s="9" t="s">
-        <v>109</v>
       </c>
       <c r="F36" s="9" t="s">
         <v>21</v>
@@ -2951,13 +2952,13 @@
         <v>31</v>
       </c>
       <c r="D37" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E37" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="E37" s="3" t="s">
+      <c r="F37" s="3" t="s">
         <v>111</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>112</v>
       </c>
       <c r="G37" s="3" t="s">
         <v>55</v>
@@ -2980,10 +2981,10 @@
       </c>
       <c r="C38" s="9"/>
       <c r="D38" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="E38" s="9" t="s">
         <v>113</v>
-      </c>
-      <c r="E38" s="9" t="s">
-        <v>114</v>
       </c>
       <c r="F38" s="9" t="s">
         <v>11</v>
@@ -2999,7 +3000,7 @@
         <v>65</v>
       </c>
       <c r="K38" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="306" x14ac:dyDescent="0.2">
@@ -3010,16 +3011,16 @@
         <v>8</v>
       </c>
       <c r="D39" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E39" s="3" t="s">
         <v>115</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>116</v>
       </c>
       <c r="F39" s="3" t="s">
         <v>22</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H39" s="3" t="s">
         <v>44</v>
@@ -3039,10 +3040,10 @@
       </c>
       <c r="C40" s="9"/>
       <c r="D40" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="E40" s="9" t="s">
         <v>117</v>
-      </c>
-      <c r="E40" s="9" t="s">
-        <v>118</v>
       </c>
       <c r="F40" s="9" t="s">
         <v>55</v>
@@ -3063,10 +3064,10 @@
         <v>8</v>
       </c>
       <c r="D41" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E41" s="3" t="s">
         <v>119</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>120</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>25</v>
@@ -3090,10 +3091,10 @@
       </c>
       <c r="C42" s="9"/>
       <c r="D42" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="E42" s="9" t="s">
         <v>121</v>
-      </c>
-      <c r="E42" s="9" t="s">
-        <v>122</v>
       </c>
       <c r="F42" s="9" t="s">
         <v>14</v>
@@ -3102,7 +3103,7 @@
         <v>39</v>
       </c>
       <c r="H42" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I42" s="9" t="s">
         <v>11</v>
@@ -3122,10 +3123,10 @@
         <v>31</v>
       </c>
       <c r="D43" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="E43" s="3" t="s">
         <v>123</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>124</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>61</v>
@@ -3140,7 +3141,7 @@
         <v>55</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K43" s="3"/>
     </row>
@@ -3153,16 +3154,16 @@
       </c>
       <c r="C44" s="9"/>
       <c r="D44" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="E44" s="9" t="s">
         <v>125</v>
-      </c>
-      <c r="E44" s="9" t="s">
-        <v>126</v>
       </c>
       <c r="F44" s="9" t="s">
         <v>39</v>
       </c>
       <c r="G44" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H44" s="9"/>
       <c r="I44" s="9"/>
@@ -3177,10 +3178,10 @@
         <v>8</v>
       </c>
       <c r="D45" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="E45" s="3" t="s">
         <v>127</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>128</v>
       </c>
       <c r="F45" s="3" t="s">
         <v>62</v>
@@ -3208,10 +3209,10 @@
         <v>67</v>
       </c>
       <c r="D46" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="E46" s="9" t="s">
         <v>129</v>
-      </c>
-      <c r="E46" s="9" t="s">
-        <v>130</v>
       </c>
       <c r="F46" s="9" t="s">
         <v>61</v>
@@ -3234,10 +3235,10 @@
         <v>8</v>
       </c>
       <c r="D47" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="E47" s="3" t="s">
         <v>131</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>132</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>11</v>
@@ -3263,16 +3264,16 @@
       </c>
       <c r="C48" s="9"/>
       <c r="D48" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="E48" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="E48" s="9" t="s">
+      <c r="F48" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="F48" s="9" t="s">
+      <c r="G48" s="9" t="s">
         <v>135</v>
-      </c>
-      <c r="G48" s="9" t="s">
-        <v>136</v>
       </c>
       <c r="H48" s="9"/>
       <c r="I48" s="9"/>
@@ -3287,10 +3288,10 @@
         <v>8</v>
       </c>
       <c r="D49" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E49" s="3" t="s">
         <v>137</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>138</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>58</v>
@@ -3305,7 +3306,7 @@
         <v>55</v>
       </c>
       <c r="J49" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K49" s="3"/>
     </row>
@@ -3317,16 +3318,16 @@
         <v>66</v>
       </c>
       <c r="C50" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="D50" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="D50" s="9" t="s">
+      <c r="E50" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="E50" s="9" t="s">
+      <c r="F50" s="9" t="s">
         <v>141</v>
-      </c>
-      <c r="F50" s="9" t="s">
-        <v>142</v>
       </c>
       <c r="G50" s="9"/>
       <c r="H50" s="9"/>
@@ -3334,7 +3335,7 @@
         <v>21</v>
       </c>
       <c r="J50" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K50" s="9"/>
     </row>
@@ -3349,19 +3350,19 @@
         <v>67</v>
       </c>
       <c r="D51" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="E51" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="E51" s="3" t="s">
-        <v>144</v>
-      </c>
       <c r="F51" s="3" t="s">
         <v>21</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="J51" s="3"/>
       <c r="K51" s="3"/>
@@ -3375,10 +3376,10 @@
       </c>
       <c r="C52" s="9"/>
       <c r="D52" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="E52" s="9" t="s">
         <v>145</v>
-      </c>
-      <c r="E52" s="9" t="s">
-        <v>146</v>
       </c>
       <c r="F52" s="9" t="s">
         <v>14</v>
@@ -3387,13 +3388,13 @@
         <v>58</v>
       </c>
       <c r="H52" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I52" s="9" t="s">
         <v>55</v>
       </c>
       <c r="J52" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K52" s="9"/>
     </row>
@@ -3405,10 +3406,10 @@
         <v>8</v>
       </c>
       <c r="D53" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="E53" s="3" t="s">
         <v>147</v>
-      </c>
-      <c r="E53" s="3" t="s">
-        <v>148</v>
       </c>
       <c r="F53" s="3" t="s">
         <v>54</v>
@@ -3436,10 +3437,10 @@
       </c>
       <c r="C54" s="9"/>
       <c r="D54" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="E54" s="9" t="s">
         <v>149</v>
-      </c>
-      <c r="E54" s="9" t="s">
-        <v>150</v>
       </c>
       <c r="F54" s="9" t="s">
         <v>21</v>
@@ -3450,7 +3451,7 @@
         <v>55</v>
       </c>
       <c r="J54" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K54" s="9"/>
     </row>
@@ -3462,10 +3463,10 @@
         <v>8</v>
       </c>
       <c r="D55" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E55" s="3" t="s">
         <v>151</v>
-      </c>
-      <c r="E55" s="3" t="s">
-        <v>152</v>
       </c>
       <c r="F55" s="3" t="s">
         <v>11</v>
@@ -3489,10 +3490,10 @@
       </c>
       <c r="C56" s="9"/>
       <c r="D56" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="E56" s="9" t="s">
         <v>153</v>
-      </c>
-      <c r="E56" s="9" t="s">
-        <v>154</v>
       </c>
       <c r="F56" s="9" t="s">
         <v>11</v>
@@ -3507,7 +3508,7 @@
         <v>55</v>
       </c>
       <c r="J56" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K56" s="9"/>
     </row>
@@ -3522,10 +3523,10 @@
         <v>67</v>
       </c>
       <c r="D57" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="E57" s="3" t="s">
         <v>155</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>156</v>
       </c>
       <c r="F57" s="3" t="s">
         <v>54</v>
@@ -3540,7 +3541,7 @@
         <v>55</v>
       </c>
       <c r="J57" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K57" s="3"/>
     </row>
@@ -3553,13 +3554,13 @@
       </c>
       <c r="C58" s="9"/>
       <c r="D58" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="E58" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="E58" s="9" t="s">
+      <c r="F58" s="9" t="s">
         <v>158</v>
-      </c>
-      <c r="F58" s="9" t="s">
-        <v>159</v>
       </c>
       <c r="G58" s="9"/>
       <c r="H58" s="9"/>
@@ -3577,13 +3578,13 @@
         <v>50</v>
       </c>
       <c r="C59" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="D59" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="D59" s="3" t="s">
+      <c r="E59" s="3" t="s">
         <v>161</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>162</v>
       </c>
       <c r="F59" s="3" t="s">
         <v>21</v>
@@ -3605,10 +3606,10 @@
         <v>67</v>
       </c>
       <c r="D60" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="E60" s="9" t="s">
         <v>163</v>
-      </c>
-      <c r="E60" s="9" t="s">
-        <v>164</v>
       </c>
       <c r="F60" s="9" t="s">
         <v>14</v>
@@ -3636,16 +3637,16 @@
         <v>67</v>
       </c>
       <c r="D61" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="E61" s="3" t="s">
         <v>165</v>
-      </c>
-      <c r="E61" s="3" t="s">
-        <v>166</v>
       </c>
       <c r="F61" s="3" t="s">
         <v>58</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I61" s="3" t="s">
         <v>11</v>
@@ -3666,10 +3667,10 @@
       </c>
       <c r="C62" s="9"/>
       <c r="D62" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="E62" s="9" t="s">
         <v>168</v>
-      </c>
-      <c r="E62" s="9" t="s">
-        <v>169</v>
       </c>
       <c r="F62" s="9" t="s">
         <v>21</v>
@@ -3696,10 +3697,10 @@
         <v>8</v>
       </c>
       <c r="D63" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="E63" s="3" t="s">
         <v>170</v>
-      </c>
-      <c r="E63" s="3" t="s">
-        <v>171</v>
       </c>
       <c r="F63" s="3" t="s">
         <v>61</v>
@@ -3711,7 +3712,7 @@
         <v>22</v>
       </c>
       <c r="K63" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="64" spans="1:11" ht="272" x14ac:dyDescent="0.2">
@@ -3723,10 +3724,10 @@
       </c>
       <c r="C64" s="9"/>
       <c r="D64" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="E64" s="9" t="s">
         <v>172</v>
-      </c>
-      <c r="E64" s="9" t="s">
-        <v>173</v>
       </c>
       <c r="F64" s="9" t="s">
         <v>45</v>
@@ -3735,10 +3736,10 @@
         <v>44</v>
       </c>
       <c r="H64" s="9" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="I64" s="9" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
@@ -3751,10 +3752,10 @@
         <v>8</v>
       </c>
       <c r="D65" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="E65" s="3" t="s">
         <v>174</v>
-      </c>
-      <c r="E65" s="3" t="s">
-        <v>175</v>
       </c>
       <c r="F65" s="3" t="s">
         <v>54</v>
@@ -3763,7 +3764,7 @@
         <v>21</v>
       </c>
       <c r="I65" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J65" s="3"/>
       <c r="K65" s="3"/>
@@ -3779,10 +3780,10 @@
         <v>67</v>
       </c>
       <c r="D66" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="E66" s="9" t="s">
         <v>176</v>
-      </c>
-      <c r="E66" s="9" t="s">
-        <v>177</v>
       </c>
       <c r="F66" s="9" t="s">
         <v>55</v>
@@ -3805,10 +3806,10 @@
         <v>8</v>
       </c>
       <c r="D67" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="E67" s="3" t="s">
         <v>178</v>
-      </c>
-      <c r="E67" s="3" t="s">
-        <v>179</v>
       </c>
       <c r="F67" s="3" t="s">
         <v>11</v>
@@ -3833,10 +3834,10 @@
       </c>
       <c r="C68" s="9"/>
       <c r="D68" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="E68" s="9" t="s">
         <v>180</v>
-      </c>
-      <c r="E68" s="9" t="s">
-        <v>181</v>
       </c>
       <c r="F68" s="9" t="s">
         <v>11</v>
@@ -3846,7 +3847,7 @@
       </c>
       <c r="H68" s="9"/>
       <c r="I68" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
@@ -3859,10 +3860,10 @@
         <v>8</v>
       </c>
       <c r="D69" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E69" s="3" t="s">
         <v>182</v>
-      </c>
-      <c r="E69" s="3" t="s">
-        <v>183</v>
       </c>
       <c r="F69" s="3" t="s">
         <v>54</v>
@@ -3890,10 +3891,10 @@
       </c>
       <c r="C70" s="9"/>
       <c r="D70" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="E70" s="9" t="s">
         <v>184</v>
-      </c>
-      <c r="E70" s="9" t="s">
-        <v>185</v>
       </c>
       <c r="F70" s="9" t="s">
         <v>14</v>
@@ -3920,10 +3921,10 @@
         <v>8</v>
       </c>
       <c r="D71" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="E71" s="3" t="s">
         <v>186</v>
-      </c>
-      <c r="E71" s="3" t="s">
-        <v>187</v>
       </c>
       <c r="F71" s="3" t="s">
         <v>14</v>
@@ -3943,10 +3944,10 @@
       </c>
       <c r="C72" s="9"/>
       <c r="D72" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="E72" s="9" t="s">
         <v>188</v>
-      </c>
-      <c r="E72" s="9" t="s">
-        <v>189</v>
       </c>
       <c r="F72" s="9" t="s">
         <v>30</v>
@@ -3973,10 +3974,10 @@
         <v>8</v>
       </c>
       <c r="D73" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="E73" s="3" t="s">
         <v>190</v>
-      </c>
-      <c r="E73" s="3" t="s">
-        <v>191</v>
       </c>
       <c r="F73" s="3" t="s">
         <v>65</v>
@@ -4002,10 +4003,10 @@
       </c>
       <c r="C74" s="9"/>
       <c r="D74" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="E74" s="9" t="s">
         <v>192</v>
-      </c>
-      <c r="E74" s="9" t="s">
-        <v>193</v>
       </c>
       <c r="F74" s="9" t="s">
         <v>36</v>
@@ -4028,10 +4029,10 @@
         <v>8</v>
       </c>
       <c r="D75" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="E75" s="3" t="s">
         <v>194</v>
-      </c>
-      <c r="E75" s="3" t="s">
-        <v>195</v>
       </c>
       <c r="F75" s="3" t="s">
         <v>11</v>
@@ -4055,13 +4056,13 @@
       </c>
       <c r="C76" s="9"/>
       <c r="D76" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="E76" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="E76" s="9" t="s">
-        <v>197</v>
-      </c>
       <c r="F76" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G76" s="9" t="s">
         <v>55</v>
@@ -4086,10 +4087,10 @@
         <v>67</v>
       </c>
       <c r="D77" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="E77" s="3" t="s">
         <v>198</v>
-      </c>
-      <c r="E77" s="3" t="s">
-        <v>199</v>
       </c>
       <c r="F77" s="3" t="s">
         <v>54</v>
@@ -4113,10 +4114,10 @@
       </c>
       <c r="C78" s="9"/>
       <c r="D78" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="E78" s="9" t="s">
         <v>200</v>
-      </c>
-      <c r="E78" s="9" t="s">
-        <v>201</v>
       </c>
       <c r="F78" s="9" t="s">
         <v>49</v>
@@ -4125,7 +4126,7 @@
         <v>65</v>
       </c>
       <c r="H78" s="9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4139,10 +4140,10 @@
         <v>8</v>
       </c>
       <c r="D79" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="E79" s="3" t="s">
         <v>203</v>
-      </c>
-      <c r="E79" s="3" t="s">
-        <v>204</v>
       </c>
       <c r="F79" s="3" t="s">
         <v>14</v>
@@ -4151,7 +4152,7 @@
         <v>21</v>
       </c>
       <c r="H79" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I79" s="3"/>
       <c r="J79" s="3"/>
@@ -4166,10 +4167,10 @@
       </c>
       <c r="C80" s="9"/>
       <c r="D80" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="E80" s="9" t="s">
         <v>205</v>
-      </c>
-      <c r="E80" s="9" t="s">
-        <v>206</v>
       </c>
       <c r="F80" s="9" t="s">
         <v>45</v>
@@ -4192,16 +4193,16 @@
         <v>8</v>
       </c>
       <c r="D81" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="E81" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="E81" s="3" t="s">
+      <c r="F81" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="F81" s="3" t="s">
-        <v>209</v>
-      </c>
       <c r="I81" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J81" s="3"/>
       <c r="K81" s="3"/>
@@ -4215,10 +4216,10 @@
       </c>
       <c r="C82" s="9"/>
       <c r="D82" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="E82" s="9" t="s">
         <v>210</v>
-      </c>
-      <c r="E82" s="9" t="s">
-        <v>211</v>
       </c>
       <c r="F82" s="9" t="s">
         <v>62</v>
@@ -4233,7 +4234,7 @@
         <v>11</v>
       </c>
       <c r="J82" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K82" s="9"/>
     </row>
@@ -4245,10 +4246,10 @@
         <v>8</v>
       </c>
       <c r="D83" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="E83" s="3" t="s">
         <v>212</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>213</v>
       </c>
       <c r="F83" s="3" t="s">
         <v>11</v>
@@ -4272,10 +4273,10 @@
         <v>67</v>
       </c>
       <c r="D84" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="E84" s="9" t="s">
         <v>214</v>
-      </c>
-      <c r="E84" s="9" t="s">
-        <v>215</v>
       </c>
       <c r="F84" s="9" t="s">
         <v>21</v>
@@ -4296,10 +4297,10 @@
         <v>31</v>
       </c>
       <c r="D85" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="E85" s="3" t="s">
         <v>216</v>
-      </c>
-      <c r="E85" s="3" t="s">
-        <v>217</v>
       </c>
       <c r="F85" s="3" t="s">
         <v>36</v>
@@ -4321,10 +4322,10 @@
       </c>
       <c r="C86" s="9"/>
       <c r="D86" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="E86" s="9" t="s">
         <v>218</v>
-      </c>
-      <c r="E86" s="9" t="s">
-        <v>219</v>
       </c>
       <c r="F86" s="9" t="s">
         <v>55</v>
@@ -4346,13 +4347,13 @@
         <v>93</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D87" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="E87" s="3" t="s">
         <v>220</v>
-      </c>
-      <c r="E87" s="3" t="s">
-        <v>221</v>
       </c>
       <c r="F87" s="3" t="s">
         <v>21</v>
@@ -4380,16 +4381,16 @@
         <v>67</v>
       </c>
       <c r="D88" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="E88" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="E88" s="9" t="s">
-        <v>223</v>
-      </c>
       <c r="F88" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G88" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H88" s="9" t="s">
         <v>21</v>
@@ -4408,10 +4409,10 @@
         <v>8</v>
       </c>
       <c r="D89" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="E89" s="3" t="s">
         <v>224</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>225</v>
       </c>
       <c r="F89" s="3" t="s">
         <v>30</v>
@@ -4434,19 +4435,19 @@
       </c>
       <c r="C90" s="9"/>
       <c r="D90" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="E90" s="9" t="s">
         <v>226</v>
-      </c>
-      <c r="E90" s="9" t="s">
-        <v>227</v>
       </c>
       <c r="F90" s="9" t="s">
         <v>55</v>
       </c>
       <c r="G90" s="9" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H90" s="9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4463,10 +4464,10 @@
         <v>67</v>
       </c>
       <c r="D91" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="E91" s="3" t="s">
         <v>229</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>230</v>
       </c>
       <c r="F91" s="3" t="s">
         <v>55</v>
@@ -4486,10 +4487,10 @@
       </c>
       <c r="C92" s="9"/>
       <c r="D92" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="E92" s="9" t="s">
         <v>231</v>
-      </c>
-      <c r="E92" s="9" t="s">
-        <v>232</v>
       </c>
       <c r="F92" s="9" t="s">
         <v>11</v>
@@ -4508,10 +4509,10 @@
         <v>50</v>
       </c>
       <c r="D93" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="E93" s="3" t="s">
         <v>233</v>
-      </c>
-      <c r="E93" s="3" t="s">
-        <v>234</v>
       </c>
       <c r="F93" s="3" t="s">
         <v>55</v>
@@ -4523,7 +4524,7 @@
         <v>54</v>
       </c>
       <c r="I93" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J93" s="3"/>
       <c r="K93" s="3"/>
@@ -4537,10 +4538,10 @@
       </c>
       <c r="C94" s="9"/>
       <c r="D94" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="E94" s="9" t="s">
         <v>235</v>
-      </c>
-      <c r="E94" s="9" t="s">
-        <v>236</v>
       </c>
       <c r="F94" s="9" t="s">
         <v>61</v>
@@ -4563,10 +4564,10 @@
         <v>8</v>
       </c>
       <c r="D95" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="E95" s="3" t="s">
         <v>237</v>
-      </c>
-      <c r="E95" s="3" t="s">
-        <v>238</v>
       </c>
       <c r="F95" s="3" t="s">
         <v>11</v>
@@ -4591,13 +4592,13 @@
         <v>66</v>
       </c>
       <c r="C96" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="D96" s="9" t="s">
         <v>239</v>
       </c>
-      <c r="D96" s="9" t="s">
+      <c r="E96" s="9" t="s">
         <v>240</v>
-      </c>
-      <c r="E96" s="9" t="s">
-        <v>241</v>
       </c>
       <c r="F96" s="9" t="s">
         <v>55</v>
@@ -4620,13 +4621,13 @@
         <v>8</v>
       </c>
       <c r="D97" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="E97" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="E97" s="3" t="s">
-        <v>243</v>
-      </c>
       <c r="F97" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G97" s="3" t="s">
         <v>11</v>
@@ -4635,7 +4636,7 @@
         <v>21</v>
       </c>
       <c r="J97" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K97" s="3"/>
     </row>
@@ -4648,13 +4649,13 @@
       </c>
       <c r="C98" s="9"/>
       <c r="D98" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="E98" s="9" t="s">
         <v>244</v>
       </c>
-      <c r="E98" s="9" t="s">
-        <v>245</v>
-      </c>
       <c r="F98" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G98" s="9" t="s">
         <v>30</v>
@@ -4666,7 +4667,7 @@
         <v>21</v>
       </c>
       <c r="J98" s="9" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="K98" s="9"/>
     </row>
@@ -4678,10 +4679,10 @@
         <v>8</v>
       </c>
       <c r="D99" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="E99" s="3" t="s">
         <v>246</v>
-      </c>
-      <c r="E99" s="3" t="s">
-        <v>247</v>
       </c>
       <c r="F99" s="3" t="s">
         <v>62</v>
@@ -4696,7 +4697,7 @@
         <v>21</v>
       </c>
       <c r="J99" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K99" s="3"/>
     </row>
@@ -4709,13 +4710,13 @@
       </c>
       <c r="C100" s="9"/>
       <c r="D100" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="E100" s="9" t="s">
         <v>248</v>
       </c>
-      <c r="E100" s="9" t="s">
-        <v>249</v>
-      </c>
       <c r="F100" s="9" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G100" s="9"/>
       <c r="H100" s="9"/>
@@ -4728,16 +4729,16 @@
         <v>107</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C101" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="D101" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="D101" s="3" t="s">
+      <c r="E101" s="3" t="s">
         <v>251</v>
-      </c>
-      <c r="E101" s="3" t="s">
-        <v>252</v>
       </c>
       <c r="F101" s="3" t="s">
         <v>21</v>
@@ -4746,7 +4747,7 @@
         <v>11</v>
       </c>
       <c r="H101" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I101" s="3" t="s">
         <v>22</v>
@@ -4765,16 +4766,16 @@
       </c>
       <c r="C102" s="9"/>
       <c r="D102" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="E102" s="9" t="s">
         <v>253</v>
-      </c>
-      <c r="E102" s="9" t="s">
-        <v>254</v>
       </c>
       <c r="F102" s="9" t="s">
         <v>36</v>
       </c>
       <c r="G102" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H102" s="9" t="s">
         <v>44</v>
@@ -4795,10 +4796,10 @@
         <v>8</v>
       </c>
       <c r="D103" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="E103" s="3" t="s">
         <v>255</v>
-      </c>
-      <c r="E103" s="3" t="s">
-        <v>256</v>
       </c>
       <c r="F103" s="3" t="s">
         <v>11</v>
@@ -4807,7 +4808,7 @@
         <v>39</v>
       </c>
       <c r="J103" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K103" s="3"/>
     </row>
@@ -4820,16 +4821,16 @@
       </c>
       <c r="C104" s="9"/>
       <c r="D104" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="E104" s="9" t="s">
         <v>257</v>
-      </c>
-      <c r="E104" s="9" t="s">
-        <v>258</v>
       </c>
       <c r="F104" s="9" t="s">
         <v>25</v>
       </c>
       <c r="G104" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H104" s="9" t="s">
         <v>14</v>
@@ -4850,10 +4851,10 @@
         <v>8</v>
       </c>
       <c r="D105" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="E105" s="3" t="s">
         <v>259</v>
-      </c>
-      <c r="E105" s="3" t="s">
-        <v>260</v>
       </c>
       <c r="F105" s="3" t="s">
         <v>49</v>
@@ -4881,10 +4882,10 @@
       </c>
       <c r="C106" s="9"/>
       <c r="D106" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="E106" s="9" t="s">
         <v>261</v>
-      </c>
-      <c r="E106" s="9" t="s">
-        <v>262</v>
       </c>
       <c r="F106" s="9" t="s">
         <v>11</v>
@@ -4907,10 +4908,10 @@
         <v>8</v>
       </c>
       <c r="D107" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="E107" s="3" t="s">
         <v>263</v>
-      </c>
-      <c r="E107" s="3" t="s">
-        <v>264</v>
       </c>
       <c r="F107" s="3" t="s">
         <v>65</v>
@@ -4919,7 +4920,7 @@
         <v>11</v>
       </c>
       <c r="I107" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J107" s="3"/>
       <c r="K107" s="3"/>
@@ -4933,10 +4934,10 @@
       </c>
       <c r="C108" s="9"/>
       <c r="D108" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="E108" s="9" t="s">
         <v>265</v>
-      </c>
-      <c r="E108" s="9" t="s">
-        <v>266</v>
       </c>
       <c r="F108" s="9" t="s">
         <v>45</v>
@@ -4957,10 +4958,10 @@
         <v>8</v>
       </c>
       <c r="D109" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="E109" s="3" t="s">
         <v>267</v>
-      </c>
-      <c r="E109" s="3" t="s">
-        <v>268</v>
       </c>
       <c r="F109" s="3" t="s">
         <v>21</v>
@@ -4984,23 +4985,23 @@
       </c>
       <c r="C110" s="9"/>
       <c r="D110" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="E110" s="9" t="s">
         <v>269</v>
       </c>
-      <c r="E110" s="9" t="s">
-        <v>270</v>
-      </c>
       <c r="F110" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G110" s="9" t="s">
         <v>21</v>
       </c>
       <c r="H110" s="9"/>
       <c r="I110" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J110" s="9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K110" s="9"/>
     </row>
@@ -5015,10 +5016,10 @@
         <v>67</v>
       </c>
       <c r="D111" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="E111" s="3" t="s">
         <v>271</v>
-      </c>
-      <c r="E111" s="3" t="s">
-        <v>272</v>
       </c>
       <c r="F111" s="3" t="s">
         <v>14</v>
@@ -5038,13 +5039,13 @@
         <v>66</v>
       </c>
       <c r="C112" s="9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D112" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="E112" s="9" t="s">
         <v>273</v>
-      </c>
-      <c r="E112" s="9" t="s">
-        <v>274</v>
       </c>
       <c r="F112" s="9" t="s">
         <v>55</v>
@@ -5055,7 +5056,7 @@
         <v>58</v>
       </c>
       <c r="J112" s="9" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="K112" s="9"/>
     </row>
@@ -5070,10 +5071,10 @@
         <v>67</v>
       </c>
       <c r="D113" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="E113" s="3" t="s">
         <v>275</v>
-      </c>
-      <c r="E113" s="3" t="s">
-        <v>276</v>
       </c>
       <c r="F113" s="3" t="s">
         <v>58</v>
@@ -5082,7 +5083,7 @@
         <v>55</v>
       </c>
       <c r="H113" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I113" s="3" t="s">
         <v>39</v>
@@ -5099,10 +5100,10 @@
       </c>
       <c r="C114" s="9"/>
       <c r="D114" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="E114" s="9" t="s">
         <v>277</v>
-      </c>
-      <c r="E114" s="9" t="s">
-        <v>278</v>
       </c>
       <c r="F114" s="9" t="s">
         <v>11</v>
@@ -5125,10 +5126,10 @@
         <v>8</v>
       </c>
       <c r="D115" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="E115" s="3" t="s">
         <v>279</v>
-      </c>
-      <c r="E115" s="3" t="s">
-        <v>280</v>
       </c>
       <c r="F115" s="3" t="s">
         <v>21</v>
@@ -5137,7 +5138,7 @@
         <v>65</v>
       </c>
       <c r="J115" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K115" s="3"/>
     </row>
@@ -5150,25 +5151,25 @@
       </c>
       <c r="C116" s="9"/>
       <c r="D116" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="E116" s="9" t="s">
         <v>281</v>
-      </c>
-      <c r="E116" s="9" t="s">
-        <v>282</v>
       </c>
       <c r="F116" s="9" t="s">
         <v>25</v>
       </c>
       <c r="G116" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H116" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I116" s="9" t="s">
         <v>30</v>
       </c>
       <c r="J116" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K116" s="9"/>
     </row>
@@ -5180,13 +5181,13 @@
         <v>31</v>
       </c>
       <c r="C117" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="D117" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="D117" s="3" t="s">
-        <v>284</v>
-      </c>
       <c r="E117" s="3" t="s">
-        <v>285</v>
+        <v>298</v>
       </c>
       <c r="F117" s="3" t="s">
         <v>55</v>
@@ -5213,13 +5214,13 @@
         <v>66</v>
       </c>
       <c r="C118" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="D118" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="E118" s="9" t="s">
         <v>286</v>
-      </c>
-      <c r="D118" s="9" t="s">
-        <v>287</v>
-      </c>
-      <c r="E118" s="9" t="s">
-        <v>288</v>
       </c>
       <c r="F118" s="9" t="s">
         <v>55</v>
@@ -5242,10 +5243,10 @@
         <v>8</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E119" s="3" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="F119" s="3" t="s">
         <v>11</v>
@@ -5265,10 +5266,10 @@
         <v>67</v>
       </c>
       <c r="D120" s="11" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E120" s="11" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="F120" s="11" t="s">
         <v>21</v>

--- a/AssetsHonsPrelimTA2024/data/Prelim_Hons_Thesis_Titles_and_Abstracts_2024_FinalX.xlsx
+++ b/AssetsHonsPrelimTA2024/data/Prelim_Hons_Thesis_Titles_and_Abstracts_2024_FinalX.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christopherbean/Documents/GitHub/drcgb.github.io/AssetsHonsPrelimTA2024/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EF6CFCC-82AC-FD4E-98F6-56BAA749DE12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F32A20E-B72E-C94A-B67B-1D44C3C83534}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="26880" xr2:uid="{D65AE397-B8D4-2049-9FF4-B8C90A09C2A0}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="815" uniqueCount="301">
   <si>
     <t>Abstract ID</t>
   </si>
@@ -1016,6 +1016,12 @@
   </si>
   <si>
     <t>Background: Family medicine/general practice (FM/GP) trainees are increasingly recognised as at risk of occupational burnout, highlighting a need to examine which interventions are effective. Aims: To systematically review and quantitatively assess the empirical evidence for psychosocial interventions targeted to FM/GP trainees to reduce burnout and/or promote well-being. Methods: Eligible studies included FM/GP trainees undergoing psychosocial interventions aimed at reducing burnout/improving well-being. A large search on databases such as PsycInfo, Medline, Embase and ProQuest was performed without date restrictions. Studies were assessed by two reviewers for their risk of bias, using the Mixed Methods Appraisal Tool (MMAT) and achieved high inter-rater agreement (88%). Hedges' g effect size estimations were used to synthesise the data and pooled across trials using a random effects model. Publication bias was evaluated and causes of heterogeneity were investigated using moderator analyses. Results: Thirteen studies including 230 FM/GP trainees were included, with interventions focusing on organisational and individual levels. Individually based interventions showed a moderately large and statistically significant treatment effect (g = 0.483, 95% CI [0.096, 0.870], p &lt;.05), however group differences were not observed. Qualitative feedback received from participants suggested interventions should focus on the importance of curriculum modifications and organised group support. Conclusions: Although some results displayed statistical significance, these results should be regarded cautiously because of the small sample sizes and possible bias. Overall, the findings of this study highlight the severity of burnout and its effects on well-being and the need for interventions to reduce these symptoms. Protocol was registered on Open Science Framework (osf.io/xxxx). Keywords: Burnout, Family Medicine, General Practice, Trainee</t>
+  </si>
+  <si>
+    <t>Investigating attitudes towards AI and its impact on the relationships between work stress and emotional eating.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In recent literature, the intricate interplay between workplace stress and emotional eating has garnered significant attention. This dynamic relationship reflects the multifaceted nature of human behaviour within organisational settings. Research indicates that heightened levels of stress in the workplace often trigger maladaptive coping mechanisms, with emotional eating emerging as a prevalent response. Individuals may turn to food as a means of seeking comfort or alleviating negative emotions induced by work-related pressures. Exploring the connection between workplace stress and attitudes toward Artificial Intelligence (AI) in organisational settings poses an opportunity to look at the intersection of human psychology, technological advancement, and organisational dynamics. As AI increasingly pervades various aspects of work, from automation to decision support systems, its integration often elicits a spectrum of reactions among employees, ranging from enthusiasm to apprehension. Delving into the complex relationship among workplace stress, attitudes toward Artificial Intelligence (AI) in the workplace, and its impact on emotional eating will offer a comprehensive understanding of the modern organisational landscape. In this study, participants were recruited from diverse demographics to ensure representative sample. Participants completed the self-reported questionnaire assessing their perceived stress levels in the workplace, feelings of burnout, attitudes towards AI, and frequency of emotional eating behaviours. </t>
   </si>
 </sst>
 </file>
@@ -1939,10 +1945,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59BFD390-3B9D-B84B-A0C7-E2BE4A98CFC4}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:K120"/>
+  <dimension ref="A1:K121"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="DP121" sqref="DP121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5282,6 +5288,29 @@
       <c r="J120" s="11"/>
       <c r="K120" s="11"/>
     </row>
+    <row r="121" spans="1:11" ht="255" x14ac:dyDescent="0.2">
+      <c r="A121" s="2">
+        <v>127</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D121" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="E121" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="F121" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G121" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H121" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/AssetsHonsPrelimTA2024/data/Prelim_Hons_Thesis_Titles_and_Abstracts_2024_FinalX.xlsx
+++ b/AssetsHonsPrelimTA2024/data/Prelim_Hons_Thesis_Titles_and_Abstracts_2024_FinalX.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christopherbean/Documents/GitHub/drcgb.github.io/AssetsHonsPrelimTA2024/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F32A20E-B72E-C94A-B67B-1D44C3C83534}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A581E7C-2454-6841-A3C6-1C30845300C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="26880" xr2:uid="{D65AE397-B8D4-2049-9FF4-B8C90A09C2A0}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="815" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="817" uniqueCount="301">
   <si>
     <t>Abstract ID</t>
   </si>
@@ -1018,10 +1018,10 @@
     <t>Background: Family medicine/general practice (FM/GP) trainees are increasingly recognised as at risk of occupational burnout, highlighting a need to examine which interventions are effective. Aims: To systematically review and quantitatively assess the empirical evidence for psychosocial interventions targeted to FM/GP trainees to reduce burnout and/or promote well-being. Methods: Eligible studies included FM/GP trainees undergoing psychosocial interventions aimed at reducing burnout/improving well-being. A large search on databases such as PsycInfo, Medline, Embase and ProQuest was performed without date restrictions. Studies were assessed by two reviewers for their risk of bias, using the Mixed Methods Appraisal Tool (MMAT) and achieved high inter-rater agreement (88%). Hedges' g effect size estimations were used to synthesise the data and pooled across trials using a random effects model. Publication bias was evaluated and causes of heterogeneity were investigated using moderator analyses. Results: Thirteen studies including 230 FM/GP trainees were included, with interventions focusing on organisational and individual levels. Individually based interventions showed a moderately large and statistically significant treatment effect (g = 0.483, 95% CI [0.096, 0.870], p &lt;.05), however group differences were not observed. Qualitative feedback received from participants suggested interventions should focus on the importance of curriculum modifications and organised group support. Conclusions: Although some results displayed statistical significance, these results should be regarded cautiously because of the small sample sizes and possible bias. Overall, the findings of this study highlight the severity of burnout and its effects on well-being and the need for interventions to reduce these symptoms. Protocol was registered on Open Science Framework (osf.io/xxxx). Keywords: Burnout, Family Medicine, General Practice, Trainee</t>
   </si>
   <si>
-    <t>Investigating attitudes towards AI and its impact on the relationships between work stress and emotional eating.</t>
-  </si>
-  <si>
     <t xml:space="preserve">In recent literature, the intricate interplay between workplace stress and emotional eating has garnered significant attention. This dynamic relationship reflects the multifaceted nature of human behaviour within organisational settings. Research indicates that heightened levels of stress in the workplace often trigger maladaptive coping mechanisms, with emotional eating emerging as a prevalent response. Individuals may turn to food as a means of seeking comfort or alleviating negative emotions induced by work-related pressures. Exploring the connection between workplace stress and attitudes toward Artificial Intelligence (AI) in organisational settings poses an opportunity to look at the intersection of human psychology, technological advancement, and organisational dynamics. As AI increasingly pervades various aspects of work, from automation to decision support systems, its integration often elicits a spectrum of reactions among employees, ranging from enthusiasm to apprehension. Delving into the complex relationship among workplace stress, attitudes toward Artificial Intelligence (AI) in the workplace, and its impact on emotional eating will offer a comprehensive understanding of the modern organisational landscape. In this study, participants were recruited from diverse demographics to ensure representative sample. Participants completed the self-reported questionnaire assessing their perceived stress levels in the workplace, feelings of burnout, attitudes towards AI, and frequency of emotional eating behaviours. </t>
+  </si>
+  <si>
+    <t>Investigating attitudes towards AI and its impact on the relationships between work stress and emotional eating</t>
   </si>
 </sst>
 </file>
@@ -1947,8 +1947,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:K121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="DP121" sqref="DP121"/>
+    <sheetView tabSelected="1" topLeftCell="A119" workbookViewId="0">
+      <selection activeCell="G124" sqref="G124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5296,19 +5296,25 @@
         <v>8</v>
       </c>
       <c r="D121" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="E121" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="E121" s="3" t="s">
-        <v>300</v>
-      </c>
       <c r="F121" s="3" t="s">
-        <v>11</v>
+        <v>291</v>
       </c>
       <c r="G121" s="3" t="s">
         <v>36</v>
       </c>
       <c r="H121" s="3" t="s">
         <v>25</v>
+      </c>
+      <c r="I121" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J121" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/AssetsHonsPrelimTA2024/data/Prelim_Hons_Thesis_Titles_and_Abstracts_2024_FinalX.xlsx
+++ b/AssetsHonsPrelimTA2024/data/Prelim_Hons_Thesis_Titles_and_Abstracts_2024_FinalX.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christopherbean/Documents/GitHub/drcgb.github.io/AssetsHonsPrelimTA2024/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A581E7C-2454-6841-A3C6-1C30845300C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF5808A9-C764-7F47-8D3F-02A7E1AB4798}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="26880" xr2:uid="{D65AE397-B8D4-2049-9FF4-B8C90A09C2A0}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="817" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="817" uniqueCount="300">
   <si>
     <t>Abstract ID</t>
   </si>
@@ -468,9 +468,6 @@
   </si>
   <si>
     <t>Political Psychology</t>
-  </si>
-  <si>
-    <t>Journalism Psychology</t>
   </si>
   <si>
     <t>How Do Agency and Pathway Factors of Resilience Influence the Relationship Between Trauma and Internalising symptoms in Children</t>
@@ -1947,8 +1944,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:K121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A119" workbookViewId="0">
-      <selection activeCell="G124" sqref="G124"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="G48" sqref="G48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1989,13 +1986,13 @@
         <v>7</v>
       </c>
       <c r="I1" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="J1" s="5" t="s">
         <v>292</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>293</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="187" x14ac:dyDescent="0.2">
@@ -2021,7 +2018,7 @@
         <v>44</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="K2" s="7"/>
     </row>
@@ -2073,7 +2070,7 @@
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
       <c r="I4" s="9" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="J4" s="9"/>
       <c r="K4" s="9"/>
@@ -2232,7 +2229,7 @@
         <v>102</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="K10" s="9"/>
     </row>
@@ -2313,7 +2310,7 @@
         <v>22</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
@@ -2371,7 +2368,7 @@
         <v>55</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
@@ -2496,7 +2493,7 @@
         <v>70</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F20" s="9" t="s">
         <v>54</v>
@@ -2533,7 +2530,7 @@
         <v>21</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="I21" s="3"/>
       <c r="J21" s="3" t="s">
@@ -2897,7 +2894,7 @@
         <v>30</v>
       </c>
       <c r="I34" s="9" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
@@ -3279,7 +3276,7 @@
         <v>134</v>
       </c>
       <c r="G48" s="9" t="s">
-        <v>135</v>
+        <v>200</v>
       </c>
       <c r="H48" s="9"/>
       <c r="I48" s="9"/>
@@ -3294,10 +3291,10 @@
         <v>8</v>
       </c>
       <c r="D49" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E49" s="3" t="s">
         <v>136</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>137</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>58</v>
@@ -3324,16 +3321,16 @@
         <v>66</v>
       </c>
       <c r="C50" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="D50" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="D50" s="9" t="s">
+      <c r="E50" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="E50" s="9" t="s">
+      <c r="F50" s="9" t="s">
         <v>140</v>
-      </c>
-      <c r="F50" s="9" t="s">
-        <v>141</v>
       </c>
       <c r="G50" s="9"/>
       <c r="H50" s="9"/>
@@ -3356,10 +3353,10 @@
         <v>67</v>
       </c>
       <c r="D51" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="E51" s="3" t="s">
         <v>142</v>
-      </c>
-      <c r="E51" s="3" t="s">
-        <v>143</v>
       </c>
       <c r="F51" s="3" t="s">
         <v>21</v>
@@ -3368,7 +3365,7 @@
         <v>89</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="J51" s="3"/>
       <c r="K51" s="3"/>
@@ -3382,10 +3379,10 @@
       </c>
       <c r="C52" s="9"/>
       <c r="D52" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="E52" s="9" t="s">
         <v>144</v>
-      </c>
-      <c r="E52" s="9" t="s">
-        <v>145</v>
       </c>
       <c r="F52" s="9" t="s">
         <v>14</v>
@@ -3412,10 +3409,10 @@
         <v>8</v>
       </c>
       <c r="D53" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E53" s="3" t="s">
         <v>146</v>
-      </c>
-      <c r="E53" s="3" t="s">
-        <v>147</v>
       </c>
       <c r="F53" s="3" t="s">
         <v>54</v>
@@ -3443,10 +3440,10 @@
       </c>
       <c r="C54" s="9"/>
       <c r="D54" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="E54" s="9" t="s">
         <v>148</v>
-      </c>
-      <c r="E54" s="9" t="s">
-        <v>149</v>
       </c>
       <c r="F54" s="9" t="s">
         <v>21</v>
@@ -3469,10 +3466,10 @@
         <v>8</v>
       </c>
       <c r="D55" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="E55" s="3" t="s">
         <v>150</v>
-      </c>
-      <c r="E55" s="3" t="s">
-        <v>151</v>
       </c>
       <c r="F55" s="3" t="s">
         <v>11</v>
@@ -3496,10 +3493,10 @@
       </c>
       <c r="C56" s="9"/>
       <c r="D56" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="E56" s="9" t="s">
         <v>152</v>
-      </c>
-      <c r="E56" s="9" t="s">
-        <v>153</v>
       </c>
       <c r="F56" s="9" t="s">
         <v>11</v>
@@ -3529,10 +3526,10 @@
         <v>67</v>
       </c>
       <c r="D57" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="E57" s="3" t="s">
         <v>154</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>155</v>
       </c>
       <c r="F57" s="3" t="s">
         <v>54</v>
@@ -3560,13 +3557,13 @@
       </c>
       <c r="C58" s="9"/>
       <c r="D58" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="E58" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="E58" s="9" t="s">
+      <c r="F58" s="9" t="s">
         <v>157</v>
-      </c>
-      <c r="F58" s="9" t="s">
-        <v>158</v>
       </c>
       <c r="G58" s="9"/>
       <c r="H58" s="9"/>
@@ -3584,13 +3581,13 @@
         <v>50</v>
       </c>
       <c r="C59" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="D59" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="D59" s="3" t="s">
+      <c r="E59" s="3" t="s">
         <v>160</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>161</v>
       </c>
       <c r="F59" s="3" t="s">
         <v>21</v>
@@ -3612,10 +3609,10 @@
         <v>67</v>
       </c>
       <c r="D60" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="E60" s="9" t="s">
         <v>162</v>
-      </c>
-      <c r="E60" s="9" t="s">
-        <v>163</v>
       </c>
       <c r="F60" s="9" t="s">
         <v>14</v>
@@ -3643,16 +3640,16 @@
         <v>67</v>
       </c>
       <c r="D61" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="E61" s="3" t="s">
         <v>164</v>
-      </c>
-      <c r="E61" s="3" t="s">
-        <v>165</v>
       </c>
       <c r="F61" s="3" t="s">
         <v>58</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I61" s="3" t="s">
         <v>11</v>
@@ -3673,10 +3670,10 @@
       </c>
       <c r="C62" s="9"/>
       <c r="D62" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="E62" s="9" t="s">
         <v>167</v>
-      </c>
-      <c r="E62" s="9" t="s">
-        <v>168</v>
       </c>
       <c r="F62" s="9" t="s">
         <v>21</v>
@@ -3703,10 +3700,10 @@
         <v>8</v>
       </c>
       <c r="D63" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="E63" s="3" t="s">
         <v>169</v>
-      </c>
-      <c r="E63" s="3" t="s">
-        <v>170</v>
       </c>
       <c r="F63" s="3" t="s">
         <v>61</v>
@@ -3730,10 +3727,10 @@
       </c>
       <c r="C64" s="9"/>
       <c r="D64" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="E64" s="9" t="s">
         <v>171</v>
-      </c>
-      <c r="E64" s="9" t="s">
-        <v>172</v>
       </c>
       <c r="F64" s="9" t="s">
         <v>45</v>
@@ -3742,10 +3739,10 @@
         <v>44</v>
       </c>
       <c r="H64" s="9" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I64" s="9" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
@@ -3758,10 +3755,10 @@
         <v>8</v>
       </c>
       <c r="D65" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="E65" s="3" t="s">
         <v>173</v>
-      </c>
-      <c r="E65" s="3" t="s">
-        <v>174</v>
       </c>
       <c r="F65" s="3" t="s">
         <v>54</v>
@@ -3770,7 +3767,7 @@
         <v>21</v>
       </c>
       <c r="I65" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J65" s="3"/>
       <c r="K65" s="3"/>
@@ -3786,10 +3783,10 @@
         <v>67</v>
       </c>
       <c r="D66" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="E66" s="9" t="s">
         <v>175</v>
-      </c>
-      <c r="E66" s="9" t="s">
-        <v>176</v>
       </c>
       <c r="F66" s="9" t="s">
         <v>55</v>
@@ -3812,10 +3809,10 @@
         <v>8</v>
       </c>
       <c r="D67" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="E67" s="3" t="s">
         <v>177</v>
-      </c>
-      <c r="E67" s="3" t="s">
-        <v>178</v>
       </c>
       <c r="F67" s="3" t="s">
         <v>11</v>
@@ -3840,10 +3837,10 @@
       </c>
       <c r="C68" s="9"/>
       <c r="D68" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="E68" s="9" t="s">
         <v>179</v>
-      </c>
-      <c r="E68" s="9" t="s">
-        <v>180</v>
       </c>
       <c r="F68" s="9" t="s">
         <v>11</v>
@@ -3866,10 +3863,10 @@
         <v>8</v>
       </c>
       <c r="D69" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="E69" s="3" t="s">
         <v>181</v>
-      </c>
-      <c r="E69" s="3" t="s">
-        <v>182</v>
       </c>
       <c r="F69" s="3" t="s">
         <v>54</v>
@@ -3897,10 +3894,10 @@
       </c>
       <c r="C70" s="9"/>
       <c r="D70" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="E70" s="9" t="s">
         <v>183</v>
-      </c>
-      <c r="E70" s="9" t="s">
-        <v>184</v>
       </c>
       <c r="F70" s="9" t="s">
         <v>14</v>
@@ -3927,10 +3924,10 @@
         <v>8</v>
       </c>
       <c r="D71" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="E71" s="3" t="s">
         <v>185</v>
-      </c>
-      <c r="E71" s="3" t="s">
-        <v>186</v>
       </c>
       <c r="F71" s="3" t="s">
         <v>14</v>
@@ -3950,10 +3947,10 @@
       </c>
       <c r="C72" s="9"/>
       <c r="D72" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="E72" s="9" t="s">
         <v>187</v>
-      </c>
-      <c r="E72" s="9" t="s">
-        <v>188</v>
       </c>
       <c r="F72" s="9" t="s">
         <v>30</v>
@@ -3980,10 +3977,10 @@
         <v>8</v>
       </c>
       <c r="D73" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="E73" s="3" t="s">
         <v>189</v>
-      </c>
-      <c r="E73" s="3" t="s">
-        <v>190</v>
       </c>
       <c r="F73" s="3" t="s">
         <v>65</v>
@@ -4009,10 +4006,10 @@
       </c>
       <c r="C74" s="9"/>
       <c r="D74" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="E74" s="9" t="s">
         <v>191</v>
-      </c>
-      <c r="E74" s="9" t="s">
-        <v>192</v>
       </c>
       <c r="F74" s="9" t="s">
         <v>36</v>
@@ -4035,10 +4032,10 @@
         <v>8</v>
       </c>
       <c r="D75" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="E75" s="3" t="s">
         <v>193</v>
-      </c>
-      <c r="E75" s="3" t="s">
-        <v>194</v>
       </c>
       <c r="F75" s="3" t="s">
         <v>11</v>
@@ -4062,13 +4059,13 @@
       </c>
       <c r="C76" s="9"/>
       <c r="D76" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="E76" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="E76" s="9" t="s">
-        <v>196</v>
-      </c>
       <c r="F76" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G76" s="9" t="s">
         <v>55</v>
@@ -4093,10 +4090,10 @@
         <v>67</v>
       </c>
       <c r="D77" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="E77" s="3" t="s">
         <v>197</v>
-      </c>
-      <c r="E77" s="3" t="s">
-        <v>198</v>
       </c>
       <c r="F77" s="3" t="s">
         <v>54</v>
@@ -4120,10 +4117,10 @@
       </c>
       <c r="C78" s="9"/>
       <c r="D78" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="E78" s="9" t="s">
         <v>199</v>
-      </c>
-      <c r="E78" s="9" t="s">
-        <v>200</v>
       </c>
       <c r="F78" s="9" t="s">
         <v>49</v>
@@ -4132,7 +4129,7 @@
         <v>65</v>
       </c>
       <c r="H78" s="9" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4146,10 +4143,10 @@
         <v>8</v>
       </c>
       <c r="D79" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="E79" s="3" t="s">
         <v>202</v>
-      </c>
-      <c r="E79" s="3" t="s">
-        <v>203</v>
       </c>
       <c r="F79" s="3" t="s">
         <v>14</v>
@@ -4158,7 +4155,7 @@
         <v>21</v>
       </c>
       <c r="H79" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I79" s="3"/>
       <c r="J79" s="3"/>
@@ -4173,10 +4170,10 @@
       </c>
       <c r="C80" s="9"/>
       <c r="D80" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="E80" s="9" t="s">
         <v>204</v>
-      </c>
-      <c r="E80" s="9" t="s">
-        <v>205</v>
       </c>
       <c r="F80" s="9" t="s">
         <v>45</v>
@@ -4199,13 +4196,13 @@
         <v>8</v>
       </c>
       <c r="D81" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="E81" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="E81" s="3" t="s">
+      <c r="F81" s="3" t="s">
         <v>207</v>
-      </c>
-      <c r="F81" s="3" t="s">
-        <v>208</v>
       </c>
       <c r="I81" s="3" t="s">
         <v>102</v>
@@ -4222,10 +4219,10 @@
       </c>
       <c r="C82" s="9"/>
       <c r="D82" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="E82" s="9" t="s">
         <v>209</v>
-      </c>
-      <c r="E82" s="9" t="s">
-        <v>210</v>
       </c>
       <c r="F82" s="9" t="s">
         <v>62</v>
@@ -4252,10 +4249,10 @@
         <v>8</v>
       </c>
       <c r="D83" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="E83" s="3" t="s">
         <v>211</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>212</v>
       </c>
       <c r="F83" s="3" t="s">
         <v>11</v>
@@ -4279,10 +4276,10 @@
         <v>67</v>
       </c>
       <c r="D84" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="E84" s="9" t="s">
         <v>213</v>
-      </c>
-      <c r="E84" s="9" t="s">
-        <v>214</v>
       </c>
       <c r="F84" s="9" t="s">
         <v>21</v>
@@ -4303,10 +4300,10 @@
         <v>31</v>
       </c>
       <c r="D85" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="E85" s="3" t="s">
         <v>215</v>
-      </c>
-      <c r="E85" s="3" t="s">
-        <v>216</v>
       </c>
       <c r="F85" s="3" t="s">
         <v>36</v>
@@ -4328,10 +4325,10 @@
       </c>
       <c r="C86" s="9"/>
       <c r="D86" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="E86" s="9" t="s">
         <v>217</v>
-      </c>
-      <c r="E86" s="9" t="s">
-        <v>218</v>
       </c>
       <c r="F86" s="9" t="s">
         <v>55</v>
@@ -4353,13 +4350,13 @@
         <v>93</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D87" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="E87" s="3" t="s">
         <v>219</v>
-      </c>
-      <c r="E87" s="3" t="s">
-        <v>220</v>
       </c>
       <c r="F87" s="3" t="s">
         <v>21</v>
@@ -4387,10 +4384,10 @@
         <v>67</v>
       </c>
       <c r="D88" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="E88" s="9" t="s">
         <v>221</v>
-      </c>
-      <c r="E88" s="9" t="s">
-        <v>222</v>
       </c>
       <c r="F88" s="9" t="s">
         <v>89</v>
@@ -4415,10 +4412,10 @@
         <v>8</v>
       </c>
       <c r="D89" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="E89" s="3" t="s">
         <v>223</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>224</v>
       </c>
       <c r="F89" s="3" t="s">
         <v>30</v>
@@ -4441,19 +4438,19 @@
       </c>
       <c r="C90" s="9"/>
       <c r="D90" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="E90" s="9" t="s">
         <v>225</v>
-      </c>
-      <c r="E90" s="9" t="s">
-        <v>226</v>
       </c>
       <c r="F90" s="9" t="s">
         <v>55</v>
       </c>
       <c r="G90" s="9" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H90" s="9" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4470,10 +4467,10 @@
         <v>67</v>
       </c>
       <c r="D91" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="E91" s="3" t="s">
         <v>228</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>229</v>
       </c>
       <c r="F91" s="3" t="s">
         <v>55</v>
@@ -4493,10 +4490,10 @@
       </c>
       <c r="C92" s="9"/>
       <c r="D92" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="E92" s="9" t="s">
         <v>230</v>
-      </c>
-      <c r="E92" s="9" t="s">
-        <v>231</v>
       </c>
       <c r="F92" s="9" t="s">
         <v>11</v>
@@ -4515,10 +4512,10 @@
         <v>50</v>
       </c>
       <c r="D93" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="E93" s="3" t="s">
         <v>232</v>
-      </c>
-      <c r="E93" s="3" t="s">
-        <v>233</v>
       </c>
       <c r="F93" s="3" t="s">
         <v>55</v>
@@ -4544,10 +4541,10 @@
       </c>
       <c r="C94" s="9"/>
       <c r="D94" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="E94" s="9" t="s">
         <v>234</v>
-      </c>
-      <c r="E94" s="9" t="s">
-        <v>235</v>
       </c>
       <c r="F94" s="9" t="s">
         <v>61</v>
@@ -4570,10 +4567,10 @@
         <v>8</v>
       </c>
       <c r="D95" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="E95" s="3" t="s">
         <v>236</v>
-      </c>
-      <c r="E95" s="3" t="s">
-        <v>237</v>
       </c>
       <c r="F95" s="3" t="s">
         <v>11</v>
@@ -4598,13 +4595,13 @@
         <v>66</v>
       </c>
       <c r="C96" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="D96" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="D96" s="9" t="s">
+      <c r="E96" s="9" t="s">
         <v>239</v>
-      </c>
-      <c r="E96" s="9" t="s">
-        <v>240</v>
       </c>
       <c r="F96" s="9" t="s">
         <v>55</v>
@@ -4627,10 +4624,10 @@
         <v>8</v>
       </c>
       <c r="D97" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="E97" s="3" t="s">
         <v>241</v>
-      </c>
-      <c r="E97" s="3" t="s">
-        <v>242</v>
       </c>
       <c r="F97" s="3" t="s">
         <v>77</v>
@@ -4655,10 +4652,10 @@
       </c>
       <c r="C98" s="9"/>
       <c r="D98" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="E98" s="9" t="s">
         <v>243</v>
-      </c>
-      <c r="E98" s="9" t="s">
-        <v>244</v>
       </c>
       <c r="F98" s="9" t="s">
         <v>77</v>
@@ -4673,7 +4670,7 @@
         <v>21</v>
       </c>
       <c r="J98" s="9" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="K98" s="9"/>
     </row>
@@ -4685,10 +4682,10 @@
         <v>8</v>
       </c>
       <c r="D99" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="E99" s="3" t="s">
         <v>245</v>
-      </c>
-      <c r="E99" s="3" t="s">
-        <v>246</v>
       </c>
       <c r="F99" s="3" t="s">
         <v>62</v>
@@ -4703,7 +4700,7 @@
         <v>21</v>
       </c>
       <c r="J99" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K99" s="3"/>
     </row>
@@ -4716,13 +4713,13 @@
       </c>
       <c r="C100" s="9"/>
       <c r="D100" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="E100" s="9" t="s">
         <v>247</v>
       </c>
-      <c r="E100" s="9" t="s">
-        <v>248</v>
-      </c>
       <c r="F100" s="9" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G100" s="9"/>
       <c r="H100" s="9"/>
@@ -4735,16 +4732,16 @@
         <v>107</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C101" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="D101" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="D101" s="3" t="s">
+      <c r="E101" s="3" t="s">
         <v>250</v>
-      </c>
-      <c r="E101" s="3" t="s">
-        <v>251</v>
       </c>
       <c r="F101" s="3" t="s">
         <v>21</v>
@@ -4772,10 +4769,10 @@
       </c>
       <c r="C102" s="9"/>
       <c r="D102" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="E102" s="9" t="s">
         <v>252</v>
-      </c>
-      <c r="E102" s="9" t="s">
-        <v>253</v>
       </c>
       <c r="F102" s="9" t="s">
         <v>36</v>
@@ -4802,10 +4799,10 @@
         <v>8</v>
       </c>
       <c r="D103" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="E103" s="3" t="s">
         <v>254</v>
-      </c>
-      <c r="E103" s="3" t="s">
-        <v>255</v>
       </c>
       <c r="F103" s="3" t="s">
         <v>11</v>
@@ -4814,7 +4811,7 @@
         <v>39</v>
       </c>
       <c r="J103" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="K103" s="3"/>
     </row>
@@ -4827,10 +4824,10 @@
       </c>
       <c r="C104" s="9"/>
       <c r="D104" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="E104" s="9" t="s">
         <v>256</v>
-      </c>
-      <c r="E104" s="9" t="s">
-        <v>257</v>
       </c>
       <c r="F104" s="9" t="s">
         <v>25</v>
@@ -4857,10 +4854,10 @@
         <v>8</v>
       </c>
       <c r="D105" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="E105" s="3" t="s">
         <v>258</v>
-      </c>
-      <c r="E105" s="3" t="s">
-        <v>259</v>
       </c>
       <c r="F105" s="3" t="s">
         <v>49</v>
@@ -4888,10 +4885,10 @@
       </c>
       <c r="C106" s="9"/>
       <c r="D106" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="E106" s="9" t="s">
         <v>260</v>
-      </c>
-      <c r="E106" s="9" t="s">
-        <v>261</v>
       </c>
       <c r="F106" s="9" t="s">
         <v>11</v>
@@ -4914,10 +4911,10 @@
         <v>8</v>
       </c>
       <c r="D107" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="E107" s="3" t="s">
         <v>262</v>
-      </c>
-      <c r="E107" s="3" t="s">
-        <v>263</v>
       </c>
       <c r="F107" s="3" t="s">
         <v>65</v>
@@ -4940,10 +4937,10 @@
       </c>
       <c r="C108" s="9"/>
       <c r="D108" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="E108" s="9" t="s">
         <v>264</v>
-      </c>
-      <c r="E108" s="9" t="s">
-        <v>265</v>
       </c>
       <c r="F108" s="9" t="s">
         <v>45</v>
@@ -4964,10 +4961,10 @@
         <v>8</v>
       </c>
       <c r="D109" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="E109" s="3" t="s">
         <v>266</v>
-      </c>
-      <c r="E109" s="3" t="s">
-        <v>267</v>
       </c>
       <c r="F109" s="3" t="s">
         <v>21</v>
@@ -4991,10 +4988,10 @@
       </c>
       <c r="C110" s="9"/>
       <c r="D110" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="E110" s="9" t="s">
         <v>268</v>
-      </c>
-      <c r="E110" s="9" t="s">
-        <v>269</v>
       </c>
       <c r="F110" s="9" t="s">
         <v>102</v>
@@ -5007,7 +5004,7 @@
         <v>96</v>
       </c>
       <c r="J110" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K110" s="9"/>
     </row>
@@ -5022,10 +5019,10 @@
         <v>67</v>
       </c>
       <c r="D111" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="E111" s="3" t="s">
         <v>270</v>
-      </c>
-      <c r="E111" s="3" t="s">
-        <v>271</v>
       </c>
       <c r="F111" s="3" t="s">
         <v>14</v>
@@ -5045,13 +5042,13 @@
         <v>66</v>
       </c>
       <c r="C112" s="9" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D112" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="E112" s="9" t="s">
         <v>272</v>
-      </c>
-      <c r="E112" s="9" t="s">
-        <v>273</v>
       </c>
       <c r="F112" s="9" t="s">
         <v>55</v>
@@ -5062,7 +5059,7 @@
         <v>58</v>
       </c>
       <c r="J112" s="9" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="K112" s="9"/>
     </row>
@@ -5077,10 +5074,10 @@
         <v>67</v>
       </c>
       <c r="D113" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="E113" s="3" t="s">
         <v>274</v>
-      </c>
-      <c r="E113" s="3" t="s">
-        <v>275</v>
       </c>
       <c r="F113" s="3" t="s">
         <v>58</v>
@@ -5106,10 +5103,10 @@
       </c>
       <c r="C114" s="9"/>
       <c r="D114" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="E114" s="9" t="s">
         <v>276</v>
-      </c>
-      <c r="E114" s="9" t="s">
-        <v>277</v>
       </c>
       <c r="F114" s="9" t="s">
         <v>11</v>
@@ -5132,10 +5129,10 @@
         <v>8</v>
       </c>
       <c r="D115" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="E115" s="3" t="s">
         <v>278</v>
-      </c>
-      <c r="E115" s="3" t="s">
-        <v>279</v>
       </c>
       <c r="F115" s="3" t="s">
         <v>21</v>
@@ -5157,10 +5154,10 @@
       </c>
       <c r="C116" s="9"/>
       <c r="D116" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="E116" s="9" t="s">
         <v>280</v>
-      </c>
-      <c r="E116" s="9" t="s">
-        <v>281</v>
       </c>
       <c r="F116" s="9" t="s">
         <v>25</v>
@@ -5169,7 +5166,7 @@
         <v>96</v>
       </c>
       <c r="H116" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I116" s="9" t="s">
         <v>30</v>
@@ -5187,13 +5184,13 @@
         <v>31</v>
       </c>
       <c r="C117" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="D117" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="D117" s="3" t="s">
-        <v>283</v>
-      </c>
       <c r="E117" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F117" s="3" t="s">
         <v>55</v>
@@ -5220,13 +5217,13 @@
         <v>66</v>
       </c>
       <c r="C118" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="D118" s="9" t="s">
         <v>284</v>
       </c>
-      <c r="D118" s="9" t="s">
+      <c r="E118" s="9" t="s">
         <v>285</v>
-      </c>
-      <c r="E118" s="9" t="s">
-        <v>286</v>
       </c>
       <c r="F118" s="9" t="s">
         <v>55</v>
@@ -5249,10 +5246,10 @@
         <v>8</v>
       </c>
       <c r="D119" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="E119" s="3" t="s">
         <v>287</v>
-      </c>
-      <c r="E119" s="3" t="s">
-        <v>288</v>
       </c>
       <c r="F119" s="3" t="s">
         <v>11</v>
@@ -5272,10 +5269,10 @@
         <v>67</v>
       </c>
       <c r="D120" s="11" t="s">
+        <v>288</v>
+      </c>
+      <c r="E120" s="11" t="s">
         <v>289</v>
-      </c>
-      <c r="E120" s="11" t="s">
-        <v>290</v>
       </c>
       <c r="F120" s="11" t="s">
         <v>21</v>
@@ -5296,13 +5293,13 @@
         <v>8</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E121" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F121" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G121" s="3" t="s">
         <v>36</v>
